--- a/liberiaCoverage.xlsx
+++ b/liberiaCoverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43A985-FB50-9D46-AA2C-516FD1992C00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12E938-BF5E-7D41-9507-45E985296522}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="460" windowWidth="39840" windowHeight="28280" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="347">
   <si>
     <t>type</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Child data</t>
   </si>
   <si>
-    <t>${ch}&gt;0</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>oedema</t>
-  </si>
-  <si>
     <t>Is there bilateral pitting oedema?</t>
   </si>
   <si>
@@ -728,18 +722,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>media::video::English</t>
-  </si>
-  <si>
-    <t>media::video::Kreyol</t>
-  </si>
-  <si>
-    <t>media::audio::English</t>
-  </si>
-  <si>
-    <t>media::audio::Kreyol</t>
-  </si>
-  <si>
     <t>hint::English</t>
   </si>
   <si>
@@ -885,6 +867,207 @@
   </si>
   <si>
     <t>if(selected(${card}, '1') or selected(${know_dob}, '1'), int((${sdate} - ${dob)) div 30.44), ${age_report})</t>
+  </si>
+  <si>
+    <t>position(..) &lt;= ${ch}</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Gender of child</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>select_one measure</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Was ${name} measured lying down or standing up?</t>
+  </si>
+  <si>
+    <t>Children under 2 years of age should be measured lying down. Children 2 and older should be measured standing up.</t>
+  </si>
+  <si>
+    <t>select_one check</t>
+  </si>
+  <si>
+    <t>acknowledge</t>
+  </si>
+  <si>
+    <t>age_check</t>
+  </si>
+  <si>
+    <t>${name} is ${age} months old.</t>
+  </si>
+  <si>
+    <t>whz_neg3_boy</t>
+  </si>
+  <si>
+    <t>whz_neg3_girl</t>
+  </si>
+  <si>
+    <t>flag_whz_neg3</t>
+  </si>
+  <si>
+    <t>haz_lower_boy</t>
+  </si>
+  <si>
+    <t>0.000000379386 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000069515524 * ${age} * ${age} * ${age} * ${age} + 0.004909805 * ${age} * ${age} * ${age} - 0.168908042 * ${age} * ${age} + 3.266127182 * ${age} + 39.95107423</t>
+  </si>
+  <si>
+    <t>if((${sex} = '1' and ${height} &gt; ${whz_neg3_boy}) or (${sex} = '2' and ${height} &gt; ${whz_neg3_girl}), '1', '0')</t>
+  </si>
+  <si>
+    <t>0.000754341 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.0299748 * ${weight} * ${weight} * ${weight} * ${weight} + 0.4284523 * ${weight} * ${weight} * ${weight} - 2.7036671 * ${weight} * ${weight} + 13.0452680 * ${weight} + 27.9253576</t>
+  </si>
+  <si>
+    <t>0.000995821 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.041179737 * ${weight} * ${weight} * ${weight} * ${weight} + 0.622839074 * ${weight} * ${weight} * ${weight} - 4.192765025 * ${weight} * ${weight} + 17.49551065 * ${weight} + 23.63868321</t>
+  </si>
+  <si>
+    <t>haz_lower_girl</t>
+  </si>
+  <si>
+    <t>muac1</t>
+  </si>
+  <si>
+    <t>weight1</t>
+  </si>
+  <si>
+    <t>height1</t>
+  </si>
+  <si>
+    <t>oedema1</t>
+  </si>
+  <si>
+    <t>oedema_check</t>
+  </si>
+  <si>
+    <t>Please confirm with team leader/supervisor. Does the child have bilateral pitting oedema?</t>
+  </si>
+  <si>
+    <t>selected(${oedema}, '1')</t>
+  </si>
+  <si>
+    <t>${muac1} &gt; 0</t>
+  </si>
+  <si>
+    <t>${muac1}</t>
+  </si>
+  <si>
+    <t>${weight1} &gt; 0</t>
+  </si>
+  <si>
+    <t>${weigh1}</t>
+  </si>
+  <si>
+    <t>${height1} &gt; 0</t>
+  </si>
+  <si>
+    <t>${height1}</t>
+  </si>
+  <si>
+    <t>haz_upper_girl</t>
+  </si>
+  <si>
+    <t>haz_upper_boy</t>
+  </si>
+  <si>
+    <t>0.000000477257 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000080053304 * ${age} * ${age} * ${age} * ${age} + 0.005071378 * ${age} * ${age} * ${age} - 0.158048367 * ${age} * ${age} + 3.584968875 * ${age} + 63.13173807</t>
+  </si>
+  <si>
+    <t>flag_haz_boy</t>
+  </si>
+  <si>
+    <t>if((${sex} = '1' and ${height} &lt; ${haz_lower_boy}) or (${sex} = '1' and ${height} &gt; ${haz_upper_boy}), '1', '0')</t>
+  </si>
+  <si>
+    <t>flag_haz_girl</t>
+  </si>
+  <si>
+    <t>0.000000308918 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000056212972 * ${age} * ${age} * ${age} * ${age} + 0.003932757 * ${age} * ${age} * ${age} - 0.135180355 * ${age} * ${age} + 2.789665701 * ${age} + 39.23327346</t>
+  </si>
+  <si>
+    <t>0.000000371919 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000065134503 * ${age} * ${age} * ${age} * ${age} + 0.004358773 * ${age} * ${age} * ${age} - 0.145396571 * ${age} * ${age} + 3.553078292 * ${age} + 62.01230832</t>
+  </si>
+  <si>
+    <t>if((${sex}='2' and ${height} &lt; ${haz_lower_girl}) or (${sex}='2' and ${height} &gt; ${haz_upper_girl}),'1','0')</t>
+  </si>
+  <si>
+    <t>whz_lower_boy</t>
+  </si>
+  <si>
+    <t>whz_upper_boy</t>
+  </si>
+  <si>
+    <t>flag_whz_boy</t>
+  </si>
+  <si>
+    <t>0.002568778 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.087078285 * ${weight} * ${weight} * ${weight} * ${weight} + 1.083870039 * ${weight} * ${weight} * ${weight} - 6.017158294 * ${weight} * ${weight} + 20.69094143 * ${weight} + 24.23997191</t>
+  </si>
+  <si>
+    <t>0.000039423 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.003300406 * ${weight} * ${weight} * ${weight} * ${weight} + 0.100344392 * ${weight} * ${weight} * ${weight} - 1.359686971 * ${weight} * ${weight} + 10.87955385 * ${weight} + 18.21716746</t>
+  </si>
+  <si>
+    <t>if((${sex}='1' and ${height} &gt; ${whz_lower_boy}) or (${sex}='1' and ${height} &lt; ${whz_upper_boy}), '1', '0')</t>
+  </si>
+  <si>
+    <t>whz_lower_girl</t>
+  </si>
+  <si>
+    <t>0.001848563 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.0606399 * ${weight} * ${weight} * ${weight} * ${weight} + 0.7185497 * ${weight} * ${weight} * ${weight} - 3.7764632 * ${weight} * ${weight} + 15.4720170 * ${weight} + 28.0948931</t>
+  </si>
+  <si>
+    <t>0.00002434 * ${weight} * ${weight} * ${weight} * ${weight} * ${weight} - 0.00197858 * ${weight} * ${weight} * ${weight} * ${weight} + 0.05716011 * ${weight} * ${weight} * ${weight} - 0.71815707 * ${weight} * ${weight} + 6.61322135 * ${weight} + 27.77925292</t>
+  </si>
+  <si>
+    <t>if((${sex} = '2' and ${height} &gt; ${whz_lower_girl}) or (${sex}='2' and ${height} &lt; ${whz_upper_girl}), '1', '0')</t>
+  </si>
+  <si>
+    <t>waz_lower_boy</t>
+  </si>
+  <si>
+    <t>waz_upper_boy</t>
+  </si>
+  <si>
+    <t>flag_waz_boy</t>
+  </si>
+  <si>
+    <t>waz_lower_girl</t>
+  </si>
+  <si>
+    <t>waz_upper_girl</t>
+  </si>
+  <si>
+    <t>flag_waz_girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000000234816*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000039531734*${cAge}*${cAge}*${cAge}*${cAge}+0.002496579*${cAge}*${cAge}*${cAge}-0.072781678*${cAge}*${cAge}+1.351053186*${cAge}+6.972621013</t>
+  </si>
+  <si>
+    <t>if((${cSex}='1' and ${cWeight} &lt; ${waz_lower_boy}) or (${cSex}='1' and ${cWeight} &gt; ${waz_upper_boy}),'1','0')</t>
+  </si>
+  <si>
+    <t>0.000000083218*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000013843176*${cAge}*${cAge}*${cAge}*${cAge}+0.000861019*${cAge}*${cAge}*${cAge}-0.025646557*${cAge}*${cAge}+0.450277222*${cAge}+1.111128346</t>
+  </si>
+  <si>
+    <t>0.000000197736*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000035478810*${cAge}*${cAge}*${cAge}*${cAge}+0.002404164*${cAge}*${cAge}*${cAge}-0.074112047*${cAge}*${cAge}+1.434496211*${cAge}+6.482817802</t>
+  </si>
+  <si>
+    <t>if((${cSex}='0' and ${cWeight} &lt; ${waz_lower_girl}) or (${cSex}='0' and ${cWeight} &gt; ${waz_upper_girl}),'1','0')</t>
+  </si>
+  <si>
+    <t>0.000000095420 * ${age} * ${age} * ${age}*${age} * ${age} - 0.00001662831 * ${age} * ${age} * ${age} * ${age} + 0.001091416 * ${age} * ${age} * ${age} - 0.033880085 * ${age} * ${age} + 0.562601613 * ${age} + 1.139474257</t>
   </si>
 </sst>
 </file>
@@ -915,7 +1098,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +1141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -971,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,6 +1227,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,13 +1630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMP54"/>
+  <dimension ref="A1:AML98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="16"/>
@@ -1429,22 +1644,21 @@
     <col min="1" max="2" width="30.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="50.83203125" style="6" customWidth="1"/>
     <col min="5" max="6" width="40.83203125" style="6" customWidth="1"/>
-    <col min="7" max="10" width="40.5" style="6"/>
-    <col min="11" max="11" width="50.83203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="40.5" style="6"/>
-    <col min="13" max="13" width="20.83203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="30.83203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="40.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="50.83203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="40.5" style="2"/>
-    <col min="18" max="18" width="40.83203125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="50.83203125" style="6" customWidth="1"/>
-    <col min="20" max="21" width="20.83203125" style="2" customWidth="1"/>
-    <col min="22" max="1030" width="40.5" style="2"/>
-    <col min="1031" max="16384" width="40.5" style="3"/>
+    <col min="7" max="7" width="50.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="6"/>
+    <col min="9" max="9" width="20.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="2"/>
+    <col min="14" max="14" width="40.83203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="50.83203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="20.83203125" style="2" customWidth="1"/>
+    <col min="18" max="1026" width="40.5" style="2"/>
+    <col min="1027" max="16384" width="40.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1030">
+    <row r="1" spans="1:1026">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1458,58 +1672,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1030">
+    <row r="2" spans="1:1026">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1526,27 +1728,23 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="10"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:1030" s="25" customFormat="1">
+    </row>
+    <row r="3" spans="1:1026" s="25" customFormat="1">
       <c r="A3" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1555,18 +1753,18 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
@@ -2573,17 +2771,13 @@
       <c r="AMJ3" s="23"/>
       <c r="AMK3" s="23"/>
       <c r="AML3" s="23"/>
-      <c r="AMM3" s="23"/>
-      <c r="AMN3" s="23"/>
-      <c r="AMO3" s="23"/>
-      <c r="AMP3" s="23"/>
-    </row>
-    <row r="4" spans="1:1030" s="2" customFormat="1">
+    </row>
+    <row r="4" spans="1:1026" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -2598,24 +2792,20 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1030" s="2" customFormat="1">
+    <row r="5" spans="1:1026" s="2" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -2628,28 +2818,24 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1030" s="2" customFormat="1" ht="409.6">
+    <row r="6" spans="1:1026" s="2" customFormat="1" ht="409.6">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2660,23 +2846,19 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1030">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1026">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
@@ -2684,28 +2866,24 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:1030">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:1026">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2722,23 +2900,19 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:1030" ht="48">
+    </row>
+    <row r="9" spans="1:1026" ht="32">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2751,26 +2925,22 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:1030">
+    </row>
+    <row r="10" spans="1:1026">
       <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
@@ -2790,12 +2960,8 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:1030" s="2" customFormat="1">
+    </row>
+    <row r="11" spans="1:1026" s="2" customFormat="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2812,12 +2978,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:1030" s="2" customFormat="1">
+    </row>
+    <row r="12" spans="1:1026" s="2" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
@@ -2838,15 +3000,11 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17" t="s">
+      <c r="Q12" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1030" s="2" customFormat="1">
+    <row r="13" spans="1:1026" s="2" customFormat="1">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2863,12 +3021,8 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:1030">
+    </row>
+    <row r="14" spans="1:1026">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -2885,29 +3039,25 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="O14" s="11"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:1026">
+      <c r="A15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" spans="1:1030">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2921,24 +3071,20 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:1030">
+    </row>
+    <row r="16" spans="1:1026">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2952,24 +3098,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="64">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2978,363 +3120,313 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="21" t="s">
-        <v>277</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21" ht="80">
+    </row>
+    <row r="18" spans="1:17" ht="64">
       <c r="A18" s="2" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="21" t="s">
-        <v>278</v>
-      </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="32">
+    </row>
+    <row r="19" spans="1:17" ht="80">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="21" t="s">
+        <v>272</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="N19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21" ht="48">
+    </row>
+    <row r="20" spans="1:17" ht="32">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q20" s="3"/>
-      <c r="S20" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" ht="32">
+    </row>
+    <row r="21" spans="1:17" ht="48">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
       <c r="O21" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="32">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" ht="32">
-      <c r="A23" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>247</v>
-      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="6" t="s">
-        <v>248</v>
-      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>262</v>
-      </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="32">
+    </row>
+    <row r="24" spans="1:17" ht="32">
       <c r="A24" s="2" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P24" s="21" t="s">
-        <v>261</v>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:17" ht="32">
+      <c r="A26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
+      <c r="K26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>256</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" ht="96">
+    </row>
+    <row r="27" spans="1:17" ht="32">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="6" t="s">
-        <v>53</v>
+      <c r="K27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" ht="32">
+    </row>
+    <row r="28" spans="1:17" ht="48">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="208">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -3342,168 +3434,133 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" ht="48">
+    </row>
+    <row r="30" spans="1:17" ht="48">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" ht="144">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="31" spans="1:17">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21" ht="32">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B32" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="29"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3511,402 +3568,1220 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21" ht="48">
-      <c r="A36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="10"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="32">
-      <c r="A38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="48">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="64">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="80">
-      <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="R42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="48">
-      <c r="A43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="32">
-      <c r="A44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S45" s="3"/>
-      <c r="T45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="64">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="36" spans="1:17" ht="119" customHeight="1">
+      <c r="A36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="32">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-    </row>
-    <row r="49" spans="1:21" s="2" customFormat="1">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" ht="32">
-      <c r="A52" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="B36" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="32"/>
+    </row>
+    <row r="37" spans="1:17" ht="121" customHeight="1">
+      <c r="A37" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="32"/>
+    </row>
+    <row r="38" spans="1:17" ht="48">
+      <c r="A38" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="32"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="105" customHeight="1">
+      <c r="A40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="32"/>
+    </row>
+    <row r="41" spans="1:17" ht="96">
+      <c r="A41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="32"/>
+    </row>
+    <row r="42" spans="1:17" ht="48">
+      <c r="A42" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="32"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" ht="96">
+      <c r="A44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="32"/>
+    </row>
+    <row r="45" spans="1:17" ht="96">
+      <c r="A45" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="32"/>
+    </row>
+    <row r="46" spans="1:17" ht="48">
+      <c r="A46" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="32"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" ht="112">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" ht="112">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" ht="48">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="24"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" ht="112">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:17" ht="112">
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="O53" s="34" t="s">
+        <v>333</v>
+      </c>
       <c r="Q53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" ht="64">
-      <c r="A54" s="13" t="s">
+    </row>
+    <row r="54" spans="1:17" ht="48">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="24"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:17" ht="96">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="1:17" ht="112">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="1:17" ht="48">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="24"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" ht="96">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" ht="96">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" ht="48">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="24"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="24"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="24"/>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" ht="80">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" ht="32">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" ht="176">
+      <c r="A69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" ht="32">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" ht="128">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="1:17" ht="32">
+      <c r="A74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
+      <c r="B74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="1:17" ht="48">
+      <c r="A76" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O76" s="11"/>
+      <c r="P76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="32">
+      <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="48">
+      <c r="A79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="64">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="64">
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="N82" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O82" s="3"/>
+      <c r="P82" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="48">
+      <c r="A83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O83" s="3"/>
+      <c r="P83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="32">
+      <c r="A84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="48">
+      <c r="A86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="32">
+      <c r="A87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:17" s="2" customFormat="1">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:17" ht="32">
+      <c r="A96" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" ht="64">
+      <c r="A98" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3916,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3936,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -3948,680 +4823,612 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>131</v>
+      <c r="C14" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="3">
-        <v>2</v>
+        <v>170</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="3">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="3">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="3">
         <v>4</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="3">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="3">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B52" s="3">
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1">
+      <c r="A62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="3">
+      <c r="D62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" s="4" customFormat="1">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="D63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1">
+      <c r="A64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="4">
         <v>3</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="4" customFormat="1">
-      <c r="A56" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="4">
-        <v>2</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" s="4" customFormat="1">
-      <c r="A58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1">
-      <c r="A61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="4" customFormat="1">
-      <c r="A62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="G62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1">
-      <c r="A63" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="G63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1">
-      <c r="A64" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="E64" s="3"/>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="65" spans="1:7" s="4" customFormat="1">
-      <c r="A65" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="G65" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E66" s="3"/>
       <c r="G66" s="4">
@@ -4630,13 +5437,13 @@
     </row>
     <row r="67" spans="1:7" s="4" customFormat="1">
       <c r="A67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E67" s="3"/>
       <c r="G67" s="4">
@@ -4645,13 +5452,13 @@
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1">
       <c r="A68" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E68" s="3"/>
       <c r="G68" s="4">
@@ -4660,13 +5467,13 @@
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E69" s="3"/>
       <c r="G69" s="4">
@@ -4675,13 +5482,13 @@
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E70" s="3"/>
       <c r="G70" s="4">
@@ -4690,13 +5497,13 @@
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1">
       <c r="A71" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E71" s="3"/>
       <c r="G71" s="4">
@@ -4705,13 +5512,13 @@
     </row>
     <row r="72" spans="1:7" s="4" customFormat="1">
       <c r="A72" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E72" s="3"/>
       <c r="G72" s="4">
@@ -4720,13 +5527,13 @@
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1">
       <c r="A73" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E73" s="3"/>
       <c r="G73" s="4">
@@ -4735,13 +5542,13 @@
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1">
       <c r="A74" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E74" s="3"/>
       <c r="G74" s="4">
@@ -4750,13 +5557,13 @@
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1">
       <c r="A75" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E75" s="3"/>
       <c r="G75" s="4">
@@ -4765,13 +5572,13 @@
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1">
       <c r="A76" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E76" s="3"/>
       <c r="G76" s="4">
@@ -4780,13 +5587,13 @@
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1">
       <c r="A77" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E77" s="3"/>
       <c r="G77" s="4">
@@ -4795,13 +5602,13 @@
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1">
       <c r="A78" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E78" s="3"/>
       <c r="G78" s="4">
@@ -4810,13 +5617,13 @@
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1">
       <c r="A79" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E79" s="3"/>
       <c r="G79" s="4">
@@ -4825,13 +5632,13 @@
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1">
       <c r="A80" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E80" s="3"/>
       <c r="G80" s="4">
@@ -4840,13 +5647,13 @@
     </row>
     <row r="81" spans="1:7" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E81" s="3"/>
       <c r="G81" s="4">
@@ -4855,13 +5662,13 @@
     </row>
     <row r="82" spans="1:7" s="4" customFormat="1">
       <c r="A82" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E82" s="3"/>
       <c r="G82" s="4">
@@ -4870,13 +5677,13 @@
     </row>
     <row r="83" spans="1:7" s="4" customFormat="1">
       <c r="A83" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E83" s="3"/>
       <c r="G83" s="4">
@@ -4885,13 +5692,13 @@
     </row>
     <row r="84" spans="1:7" s="4" customFormat="1">
       <c r="A84" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E84" s="3"/>
       <c r="G84" s="4">
@@ -4900,13 +5707,13 @@
     </row>
     <row r="85" spans="1:7" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E85" s="3"/>
       <c r="G85" s="4">
@@ -4915,13 +5722,13 @@
     </row>
     <row r="86" spans="1:7" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E86" s="3"/>
       <c r="G86" s="4">
@@ -4930,13 +5737,13 @@
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1">
       <c r="A87" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E87" s="3"/>
       <c r="G87" s="4">
@@ -4945,13 +5752,13 @@
     </row>
     <row r="88" spans="1:7" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E88" s="3"/>
       <c r="G88" s="4">
@@ -4960,13 +5767,13 @@
     </row>
     <row r="89" spans="1:7" s="4" customFormat="1">
       <c r="A89" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E89" s="3"/>
       <c r="G89" s="4">
@@ -4975,103 +5782,103 @@
     </row>
     <row r="90" spans="1:7" s="4" customFormat="1">
       <c r="A90" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E90" s="3"/>
       <c r="G90" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="4" customFormat="1">
       <c r="A91" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E91" s="3"/>
       <c r="G91" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="4" customFormat="1">
       <c r="A92" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E92" s="3"/>
       <c r="G92" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E93" s="3"/>
       <c r="G93" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="4" customFormat="1">
       <c r="A94" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E94" s="3"/>
       <c r="G94" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="4" customFormat="1">
       <c r="A95" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E95" s="3"/>
       <c r="G95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E96" s="3"/>
       <c r="G96" s="4">
@@ -5080,13 +5887,13 @@
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1">
       <c r="A97" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E97" s="3"/>
       <c r="G97" s="4">
@@ -5095,13 +5902,13 @@
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1">
       <c r="A98" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E98" s="3"/>
       <c r="G98" s="4">
@@ -5110,13 +5917,13 @@
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E99" s="3"/>
       <c r="G99" s="4">
@@ -5125,13 +5932,13 @@
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E100" s="3"/>
       <c r="G100" s="4">
@@ -5140,13 +5947,13 @@
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E101" s="3"/>
       <c r="G101" s="4">
@@ -5155,13 +5962,13 @@
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1">
       <c r="A102" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E102" s="3"/>
       <c r="G102" s="4">
@@ -5170,13 +5977,13 @@
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1">
       <c r="A103" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E103" s="3"/>
       <c r="G103" s="4">
@@ -5185,13 +5992,13 @@
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1">
       <c r="A104" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E104" s="3"/>
       <c r="G104" s="4">
@@ -5200,13 +6007,13 @@
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1">
       <c r="A105" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="3"/>
       <c r="G105" s="4">
@@ -5215,13 +6022,13 @@
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1">
       <c r="A106" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E106" s="3"/>
       <c r="G106" s="4">
@@ -5230,13 +6037,13 @@
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1">
       <c r="A107" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E107" s="3"/>
       <c r="G107" s="4">
@@ -5245,13 +6052,13 @@
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E108" s="3"/>
       <c r="G108" s="4">
@@ -5260,13 +6067,13 @@
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1">
       <c r="A109" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E109" s="3"/>
       <c r="G109" s="4">
@@ -5275,13 +6082,13 @@
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E110" s="3"/>
       <c r="G110" s="4">
@@ -5290,13 +6097,13 @@
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E111" s="3"/>
       <c r="G111" s="4">
@@ -5305,13 +6112,13 @@
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E112" s="3"/>
       <c r="G112" s="4">
@@ -5320,13 +6127,13 @@
     </row>
     <row r="113" spans="1:7" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E113" s="3"/>
       <c r="G113" s="4">
@@ -5335,13 +6142,13 @@
     </row>
     <row r="114" spans="1:7" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E114" s="3"/>
       <c r="G114" s="4">
@@ -5350,13 +6157,13 @@
     </row>
     <row r="115" spans="1:7" s="4" customFormat="1">
       <c r="A115" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E115" s="3"/>
       <c r="G115" s="4">
@@ -5365,13 +6172,13 @@
     </row>
     <row r="116" spans="1:7" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E116" s="3"/>
       <c r="G116" s="4">
@@ -5380,13 +6187,13 @@
     </row>
     <row r="117" spans="1:7" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E117" s="3"/>
       <c r="G117" s="4">
@@ -5395,13 +6202,13 @@
     </row>
     <row r="118" spans="1:7" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E118" s="3"/>
       <c r="G118" s="4">
@@ -5410,13 +6217,13 @@
     </row>
     <row r="119" spans="1:7" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E119" s="3"/>
       <c r="G119" s="4">
@@ -5425,103 +6232,103 @@
     </row>
     <row r="120" spans="1:7" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E120" s="3"/>
       <c r="G120" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="4" customFormat="1">
       <c r="A121" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E121" s="3"/>
       <c r="G121" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="4" customFormat="1">
       <c r="A122" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="E122" s="3"/>
       <c r="G122" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E123" s="3"/>
       <c r="G123" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="4" customFormat="1">
       <c r="A124" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E124" s="3"/>
       <c r="G124" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="4" customFormat="1">
       <c r="A125" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="E125" s="3"/>
       <c r="G125" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E126" s="3"/>
       <c r="G126" s="4">
@@ -5530,13 +6337,13 @@
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1">
       <c r="A127" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="C127" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E127" s="3"/>
       <c r="G127" s="4">
@@ -5545,13 +6352,13 @@
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1">
       <c r="A128" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E128" s="3"/>
       <c r="G128" s="4">
@@ -5560,13 +6367,13 @@
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1">
       <c r="A129" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E129" s="3"/>
       <c r="G129" s="4">
@@ -5575,13 +6382,13 @@
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E130" s="3"/>
       <c r="G130" s="4">
@@ -5590,13 +6397,13 @@
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1">
       <c r="A131" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E131" s="3"/>
       <c r="G131" s="4">
@@ -5605,13 +6412,13 @@
     </row>
     <row r="132" spans="1:7" s="4" customFormat="1">
       <c r="A132" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E132" s="3"/>
       <c r="G132" s="4">
@@ -5620,13 +6427,13 @@
     </row>
     <row r="133" spans="1:7" s="4" customFormat="1">
       <c r="A133" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E133" s="3"/>
       <c r="G133" s="4">
@@ -5635,13 +6442,13 @@
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1">
       <c r="A134" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E134" s="3"/>
       <c r="G134" s="4">
@@ -5650,13 +6457,13 @@
     </row>
     <row r="135" spans="1:7" s="4" customFormat="1">
       <c r="A135" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E135" s="3"/>
       <c r="G135" s="4">
@@ -5665,13 +6472,13 @@
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1">
       <c r="A136" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E136" s="3"/>
       <c r="G136" s="4">
@@ -5680,13 +6487,13 @@
     </row>
     <row r="137" spans="1:7" s="4" customFormat="1">
       <c r="A137" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E137" s="3"/>
       <c r="G137" s="4">
@@ -5695,13 +6502,13 @@
     </row>
     <row r="138" spans="1:7" s="4" customFormat="1">
       <c r="A138" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E138" s="3"/>
       <c r="G138" s="4">
@@ -5710,13 +6517,13 @@
     </row>
     <row r="139" spans="1:7" s="4" customFormat="1">
       <c r="A139" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E139" s="3"/>
       <c r="G139" s="4">
@@ -5725,13 +6532,13 @@
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1">
       <c r="A140" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E140" s="3"/>
       <c r="G140" s="4">
@@ -5740,13 +6547,13 @@
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1">
       <c r="A141" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E141" s="3"/>
       <c r="G141" s="4">
@@ -5755,13 +6562,13 @@
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1">
       <c r="A142" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E142" s="3"/>
       <c r="G142" s="4">
@@ -5770,13 +6577,13 @@
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1">
       <c r="A143" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E143" s="3"/>
       <c r="G143" s="4">
@@ -5785,13 +6592,13 @@
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1">
       <c r="A144" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E144" s="3"/>
       <c r="G144" s="4">
@@ -5800,13 +6607,13 @@
     </row>
     <row r="145" spans="1:7" s="4" customFormat="1">
       <c r="A145" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E145" s="3"/>
       <c r="G145" s="4">
@@ -5815,13 +6622,13 @@
     </row>
     <row r="146" spans="1:7" s="4" customFormat="1">
       <c r="A146" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E146" s="3"/>
       <c r="G146" s="4">
@@ -5830,13 +6637,13 @@
     </row>
     <row r="147" spans="1:7" s="4" customFormat="1">
       <c r="A147" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E147" s="3"/>
       <c r="G147" s="4">
@@ -5845,13 +6652,13 @@
     </row>
     <row r="148" spans="1:7" s="4" customFormat="1">
       <c r="A148" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E148" s="3"/>
       <c r="G148" s="4">
@@ -5860,16 +6667,106 @@
     </row>
     <row r="149" spans="1:7" s="4" customFormat="1">
       <c r="A149" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E149" s="3"/>
       <c r="G149" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="4" customFormat="1">
+      <c r="A150" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="G150" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="4" customFormat="1">
+      <c r="A151" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="G151" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="4" customFormat="1">
+      <c r="A152" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="G152" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="4" customFormat="1">
+      <c r="A153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="G153" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="4" customFormat="1">
+      <c r="A154" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="G154" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="4" customFormat="1">
+      <c r="A155" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="G155" s="4">
         <v>3</v>
       </c>
     </row>
@@ -5900,33 +6797,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/liberiaCoverage.xlsx
+++ b/liberiaCoverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD12E938-BF5E-7D41-9507-45E985296522}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF8A41A-68F7-8049-AF78-943C8A57C0D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="460" windowWidth="39840" windowHeight="28280" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="351">
   <si>
     <t>type</t>
   </si>
@@ -1052,22 +1052,34 @@
     <t>flag_waz_girl</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.000000234816*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000039531734*${cAge}*${cAge}*${cAge}*${cAge}+0.002496579*${cAge}*${cAge}*${cAge}-0.072781678*${cAge}*${cAge}+1.351053186*${cAge}+6.972621013</t>
-  </si>
-  <si>
-    <t>if((${cSex}='1' and ${cWeight} &lt; ${waz_lower_boy}) or (${cSex}='1' and ${cWeight} &gt; ${waz_upper_boy}),'1','0')</t>
-  </si>
-  <si>
-    <t>0.000000083218*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000013843176*${cAge}*${cAge}*${cAge}*${cAge}+0.000861019*${cAge}*${cAge}*${cAge}-0.025646557*${cAge}*${cAge}+0.450277222*${cAge}+1.111128346</t>
-  </si>
-  <si>
-    <t>0.000000197736*${cAge}*${cAge}*${cAge}*${cAge}*${cAge}-0.000035478810*${cAge}*${cAge}*${cAge}*${cAge}+0.002404164*${cAge}*${cAge}*${cAge}-0.074112047*${cAge}*${cAge}+1.434496211*${cAge}+6.482817802</t>
-  </si>
-  <si>
-    <t>if((${cSex}='0' and ${cWeight} &lt; ${waz_lower_girl}) or (${cSex}='0' and ${cWeight} &gt; ${waz_upper_girl}),'1','0')</t>
-  </si>
-  <si>
     <t>0.000000095420 * ${age} * ${age} * ${age}*${age} * ${age} - 0.00001662831 * ${age} * ${age} * ${age} * ${age} + 0.001091416 * ${age} * ${age} * ${age} - 0.033880085 * ${age} * ${age} + 0.562601613 * ${age} + 1.139474257</t>
+  </si>
+  <si>
+    <t>0.000000234816 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000039531734 * ${age} * ${age} * ${age} * ${age} + 0.002496579 * ${age} * ${age} * ${age} - 0.072781678 * ${age} * ${age} + 1.351053186 * ${age} + 6.972621013</t>
+  </si>
+  <si>
+    <t>if((${sex} = '1' and ${weight} &lt; ${waz_lower_boy}) or (${sex} = '1' and ${weight} &gt; ${waz_upper_boy}), '1', '0')</t>
+  </si>
+  <si>
+    <t>0.000000083218 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000013843176 * ${age} * ${age} * ${age} * ${age} + 0.000861019 * ${age} * ${age} * ${age} - 0.025646557 * ${age} * ${age} + 0.450277222 * ${age} + 1.111128346</t>
+  </si>
+  <si>
+    <t>0.000000197736 * ${age} * ${age} * ${age} * ${age} * ${age} - 0.000035478810 * ${age} * ${age} * ${age} * ${age} + 0.002404164 * ${age} * ${age} * ${age} - 0.074112047 * ${age} * ${age} + 1.434496211 * ${age} + 6.482817802</t>
+  </si>
+  <si>
+    <t>if((${sex} = '2' and ${weight} &lt; ${waz_lower_girl}) or (${sex} = '2' and ${weight} &gt; ${waz_upper_girl}), '1', '0')</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>${flag_haz_boy} = '1' or ${flag_haz_girl} = '1' or ${flag_whz_girl} = '1' or ${flag_whz_boy} = '1' or ${flag_waz_boy} = '1' or ${flag_waz_girl} = '1' or ${flag_muac_boy} = '1' or ${flag_muac_girl} = '1'</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>if(${flag_whz_neg3} = '1' or ${muac} &lt; 115 or ${oedema_check} = '1', '1', '0')</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1110,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,12 +1155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1166,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,17 +1241,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1630,13 +1626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML98"/>
+  <dimension ref="A1:AML99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O57" sqref="O57"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="16"/>
@@ -3571,79 +3567,79 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="119" customHeight="1">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="31" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="32"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="29"/>
     </row>
     <row r="37" spans="1:17" ht="121" customHeight="1">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="31" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="32"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="29"/>
     </row>
     <row r="38" spans="1:17" ht="48">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="31" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="32"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17">
       <c r="D39" s="3"/>
@@ -3659,79 +3655,79 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="105" customHeight="1">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="31" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="32"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="96">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="32"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="48">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="32"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17">
       <c r="D43" s="3"/>
@@ -3747,79 +3743,79 @@
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="96">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="31" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="32"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="29"/>
     </row>
     <row r="45" spans="1:17" ht="96">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="31" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="32"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="29"/>
     </row>
     <row r="46" spans="1:17" ht="48">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="31" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="32"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17">
       <c r="D47" s="3"/>
@@ -3835,67 +3831,79 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="112">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="24" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="Q48" s="3"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="29"/>
     </row>
     <row r="49" spans="1:17" ht="112">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="24" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="Q49" s="3"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="29"/>
     </row>
     <row r="50" spans="1:17" ht="48">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="24" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="Q50" s="3"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="29"/>
     </row>
     <row r="51" spans="1:17">
       <c r="D51" s="3"/>
@@ -3911,67 +3919,79 @@
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="112">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="34" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="Q52" s="3"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="29"/>
     </row>
     <row r="53" spans="1:17" ht="112">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="34" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="Q53" s="3"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="29"/>
     </row>
     <row r="54" spans="1:17" ht="48">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="34" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="Q54" s="3"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="29"/>
     </row>
     <row r="55" spans="1:17">
       <c r="D55" s="3"/>
@@ -3987,67 +4007,79 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" ht="96">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" ht="112">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="1:17" ht="96">
+      <c r="A57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q57" s="3"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="29"/>
     </row>
     <row r="58" spans="1:17" ht="48">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q58" s="3"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17">
       <c r="D59" s="3"/>
@@ -4063,67 +4095,79 @@
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" ht="96">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q60" s="3"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="1:17" ht="96">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q61" s="3"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="29"/>
     </row>
     <row r="62" spans="1:17" ht="48">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q62" s="3"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="29"/>
     </row>
     <row r="63" spans="1:17">
       <c r="D63" s="3"/>
@@ -4138,18 +4182,32 @@
       <c r="O63" s="24"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17">
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="24"/>
-      <c r="Q64" s="3"/>
+    <row r="64" spans="1:17" ht="128">
+      <c r="A64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="O64" s="28">
+        <v>1</v>
+      </c>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="29"/>
     </row>
     <row r="65" spans="1:17">
       <c r="D65" s="3"/>
@@ -4164,64 +4222,59 @@
       <c r="O65" s="24"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" ht="80">
-      <c r="A67" s="2" t="s">
+    <row r="66" spans="1:17" ht="32">
+      <c r="A66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B66" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" ht="32">
+    <row r="68" spans="1:17" ht="80">
       <c r="A68" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -4229,119 +4282,124 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="O68" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="P68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" ht="176">
+    <row r="69" spans="1:17" ht="32">
       <c r="A69" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="G69" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="O69" s="3"/>
       <c r="P69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" ht="32">
+    <row r="70" spans="1:17" ht="176">
       <c r="A70" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
+      <c r="O70" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="P70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:17" ht="32">
+      <c r="A71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" ht="128">
-      <c r="A73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4353,23 +4411,19 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" ht="32">
+    <row r="74" spans="1:17" ht="128">
       <c r="A74" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4382,14 +4436,24 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="O74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+    <row r="75" spans="1:17" ht="32">
+      <c r="A75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4405,102 +4469,102 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" ht="48">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:17">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="1:17" ht="48">
+      <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="11" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O76" s="11"/>
-      <c r="P76" s="10" t="s">
+      <c r="O77" s="11"/>
+      <c r="P77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="2" t="s">
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="32">
-      <c r="A78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="48">
+    <row r="79" spans="1:17" ht="32">
       <c r="A79" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N79" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="O79" s="3"/>
       <c r="P79" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="64">
+    <row r="80" spans="1:17" ht="48">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>81</v>
@@ -4513,192 +4577,207 @@
     </row>
     <row r="81" spans="1:17" ht="64">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" ht="64">
       <c r="A82" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="N82" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O82" s="3"/>
       <c r="P82" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="48">
+    <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="N83" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="32">
+    <row r="84" spans="1:17" ht="48">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" ht="32">
       <c r="A85" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="48">
+    <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O86" s="3"/>
+      <c r="P86" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="48">
+      <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="6" t="s">
+      <c r="N87" s="3"/>
+      <c r="O87" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="32">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:17" ht="32">
+      <c r="A88" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="N88" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="10" t="s">
+    <row r="89" spans="1:17">
+      <c r="A89" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="1:17" s="2" customFormat="1">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="18" t="s">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="1:17" s="2" customFormat="1">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
     </row>
     <row r="92" spans="1:17">
       <c r="B92" s="3"/>
@@ -4716,72 +4795,76 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:17" ht="32">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:17">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" ht="32">
+      <c r="A97" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B97" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="14" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="1:17" ht="64">
-      <c r="A98" s="13" t="s">
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" ht="64">
+      <c r="A99" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B99" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/liberiaCoverage.xlsx
+++ b/liberiaCoverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EBC5F-6EA9-A345-AE7D-0CF72FC5BEA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3334299C-638F-2F41-A926-E15B3D8D5321}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9700" yWindow="460" windowWidth="39240" windowHeight="25880" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Village</t>
   </si>
   <si>
-    <t>county = ${cid}</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -884,9 +881,6 @@
     <t>${weight1} &gt; 0</t>
   </si>
   <si>
-    <t>${weigh1}</t>
-  </si>
-  <si>
     <t>${height1} &gt; 0</t>
   </si>
   <si>
@@ -989,9 +983,6 @@
     <t>flag</t>
   </si>
   <si>
-    <t>${flag_haz_boy} = '1' or ${flag_haz_girl} = '1' or ${flag_whz_girl} = '1' or ${flag_whz_boy} = '1' or ${flag_waz_boy} = '1' or ${flag_waz_girl} = '1' or ${flag_muac_boy} = '1' or ${flag_muac_girl} = '1'</t>
-  </si>
-  <si>
     <t>sam</t>
   </si>
   <si>
@@ -1049,9 +1040,6 @@
     <t>oedema2</t>
   </si>
   <si>
-    <t>weigth2</t>
-  </si>
-  <si>
     <t>height2</t>
   </si>
   <si>
@@ -1079,9 +1067,6 @@
     <t>${muac2}</t>
   </si>
   <si>
-    <t>${weigh2}</t>
-  </si>
-  <si>
     <t>${height2}</t>
   </si>
   <si>
@@ -1196,9 +1181,6 @@
     <t>oedema3</t>
   </si>
   <si>
-    <t>weigth3</t>
-  </si>
-  <si>
     <t>height3</t>
   </si>
   <si>
@@ -1229,9 +1211,6 @@
     <t>${muac3}</t>
   </si>
   <si>
-    <t>${weigh3}</t>
-  </si>
-  <si>
     <t>${height3}</t>
   </si>
   <si>
@@ -1301,15 +1280,9 @@
     <t>RUSF and health card</t>
   </si>
   <si>
-    <t>${nut_status} = '1' and (${cov_status} = '2' or (${cov_status) = '3' and (${check_programme} = '1' or ${check_programme} = '3')))</t>
-  </si>
-  <si>
     <t>${nut_status} = '0' and (${cov_status} = '2' or (${cov_status} = '3' and (${check_programme} = '1' or ${check_programme} = '3')))</t>
   </si>
   <si>
-    <t>${nut_status} = '1' and (${cov_status} = '1' or (${cov_status) = '3' and (${check_programme} != '1' or ${check_programme} ! = '3')))</t>
-  </si>
-  <si>
     <t>${out} = '1'</t>
   </si>
   <si>
@@ -1322,9 +1295,6 @@
     <t>position(..) &lt; ${ch}</t>
   </si>
   <si>
-    <t>if(${out} = '1', 'Refer child to most appropriate treatment centre')</t>
-  </si>
-  <si>
     <t>This child is severe acute malnourished. *${refer_action}*</t>
   </si>
   <si>
@@ -1368,6 +1338,36 @@
   </si>
   <si>
     <t>selected(${oedema1}, '1')</t>
+  </si>
+  <si>
+    <t>${weight1}</t>
+  </si>
+  <si>
+    <t>${flag_haz_boy} = '1' or ${flag_haz_girl} = '1' or ${flag_whz_girl} = '1' or ${flag_whz_boy} = '1' or ${flag_waz_boy} = '1' or ${flag_waz_girl} = '1'</t>
+  </si>
+  <si>
+    <t>weight2</t>
+  </si>
+  <si>
+    <t>${weight2}</t>
+  </si>
+  <si>
+    <t>${weight3}</t>
+  </si>
+  <si>
+    <t>weight3</t>
+  </si>
+  <si>
+    <t>${nut_status} = '1' and (${cov_status} = '2' or (${cov_status} = '3' and (${check_programme} = '1' or ${check_programme} = '3')))</t>
+  </si>
+  <si>
+    <t>county = ${co}</t>
+  </si>
+  <si>
+    <t>${nut_status} = '1' and (${cov_status} = '1' or (${cov_status} = '3' and (${check_programme} != '1' or ${check_programme} != '3')))</t>
+  </si>
+  <si>
+    <t>"Refer child to most appropriate treatment centre"</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1593,6 +1593,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,10 +1982,10 @@
   <dimension ref="A1:AML178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="O167" sqref="O167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="16"/>
@@ -2017,16 +2020,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>4</v>
@@ -2038,10 +2041,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>7</v>
@@ -2072,7 +2075,7 @@
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="37"/>
@@ -2085,23 +2088,23 @@
     </row>
     <row r="3" spans="1:1026" s="23" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>252</v>
-      </c>
       <c r="D3" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="30"/>
@@ -3128,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>15</v>
@@ -3157,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>18</v>
@@ -3171,7 +3174,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="32"/>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="6" spans="1:1026" s="2" customFormat="1" ht="409.6">
       <c r="A6" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -3203,20 +3206,20 @@
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:1026">
       <c r="A7" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -3226,10 +3229,10 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="32"/>
@@ -3241,13 +3244,13 @@
     </row>
     <row r="8" spans="1:1026">
       <c r="A8" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3257,7 +3260,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
       <c r="K8" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
@@ -3270,19 +3273,19 @@
     </row>
     <row r="9" spans="1:1026" ht="32">
       <c r="A9" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="10" spans="1:1026">
       <c r="A10" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -3338,10 +3341,10 @@
     </row>
     <row r="12" spans="1:1026" s="2" customFormat="1">
       <c r="A12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3358,7 +3361,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1026" s="2" customFormat="1">
@@ -3384,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -3398,7 +3401,7 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
@@ -3427,10 +3430,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -3438,7 +3441,7 @@
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="37"/>
@@ -3451,13 +3454,13 @@
     </row>
     <row r="17" spans="1:1026">
       <c r="A17" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -3478,13 +3481,13 @@
     </row>
     <row r="18" spans="1:1026">
       <c r="A18" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -3505,13 +3508,13 @@
     </row>
     <row r="19" spans="1:1026">
       <c r="A19" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>236</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -3532,19 +3535,19 @@
     </row>
     <row r="20" spans="1:1026" ht="64">
       <c r="A20" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>242</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>243</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -3553,7 +3556,7 @@
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O20" s="32"/>
       <c r="P20" s="30"/>
@@ -3561,19 +3564,19 @@
     </row>
     <row r="21" spans="1:1026" ht="80">
       <c r="A21" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -3582,7 +3585,7 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O21" s="32"/>
       <c r="P21" s="30"/>
@@ -3590,32 +3593,32 @@
     </row>
     <row r="22" spans="1:1026" ht="32">
       <c r="A22" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O22" s="32"/>
       <c r="P22" s="30" t="s">
@@ -3625,7 +3628,7 @@
     </row>
     <row r="23" spans="1:1026">
       <c r="A23" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="25" spans="1:1026" ht="48">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3670,19 +3673,19 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="O25" s="5" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:1026">
       <c r="A26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3711,10 +3714,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3722,7 +3725,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="33"/>
@@ -3735,13 +3738,13 @@
     </row>
     <row r="29" spans="1:1026" s="23" customFormat="1" ht="48">
       <c r="A29" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -4769,28 +4772,28 @@
     </row>
     <row r="30" spans="1:1026" ht="32">
       <c r="A30" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
       <c r="K30" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
@@ -4802,19 +4805,19 @@
     </row>
     <row r="31" spans="1:1026">
       <c r="A31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
@@ -4831,28 +4834,28 @@
     </row>
     <row r="32" spans="1:1026" ht="32">
       <c r="A32" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
       <c r="K32" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
@@ -4864,28 +4867,28 @@
     </row>
     <row r="33" spans="1:17" ht="32">
       <c r="A33" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H33" s="31"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
       <c r="K33" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
@@ -4897,19 +4900,19 @@
     </row>
     <row r="34" spans="1:17" ht="48">
       <c r="A34" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="32"/>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="34"/>
@@ -4960,13 +4963,13 @@
     </row>
     <row r="37" spans="1:17" ht="48">
       <c r="A37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4977,7 +4980,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="2" t="s">
@@ -5000,10 +5003,10 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
@@ -5017,20 +5020,20 @@
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" s="26" t="s">
         <v>282</v>
-      </c>
-      <c r="O39" s="26" t="s">
-        <v>283</v>
       </c>
       <c r="P39" s="24"/>
       <c r="Q39" s="26"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
@@ -5044,20 +5047,20 @@
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="P40" s="24"/>
       <c r="Q40" s="26"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
@@ -5071,10 +5074,10 @@
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P41" s="24"/>
       <c r="Q41" s="26"/>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="43" spans="1:17" ht="119" customHeight="1">
       <c r="A43" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
@@ -5112,17 +5115,17 @@
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
       <c r="O43" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P43" s="24"/>
       <c r="Q43" s="26"/>
     </row>
     <row r="44" spans="1:17" ht="121" customHeight="1">
       <c r="A44" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
@@ -5137,17 +5140,17 @@
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
       <c r="O44" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P44" s="24"/>
       <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:17" ht="48">
       <c r="A45" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
@@ -5162,7 +5165,7 @@
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P45" s="24"/>
       <c r="Q45" s="26"/>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="47" spans="1:17" ht="105" customHeight="1">
       <c r="A47" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
@@ -5200,17 +5203,17 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P47" s="24"/>
       <c r="Q47" s="26"/>
     </row>
     <row r="48" spans="1:17" ht="96">
       <c r="A48" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
@@ -5225,17 +5228,17 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P48" s="24"/>
       <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:17" ht="48">
       <c r="A49" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
@@ -5250,7 +5253,7 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P49" s="24"/>
       <c r="Q49" s="26"/>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="51" spans="1:17" ht="96">
       <c r="A51" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -5288,17 +5291,17 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P51" s="24"/>
       <c r="Q51" s="26"/>
     </row>
     <row r="52" spans="1:17" ht="96">
       <c r="A52" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
@@ -5313,17 +5316,17 @@
       <c r="M52" s="26"/>
       <c r="N52" s="26"/>
       <c r="O52" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P52" s="24"/>
       <c r="Q52" s="26"/>
     </row>
     <row r="53" spans="1:17" ht="48">
       <c r="A53" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
@@ -5338,7 +5341,7 @@
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
       <c r="O53" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P53" s="24"/>
       <c r="Q53" s="26"/>
@@ -5358,10 +5361,10 @@
     </row>
     <row r="55" spans="1:17" ht="112">
       <c r="A55" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
@@ -5376,17 +5379,17 @@
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
       <c r="O55" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P55" s="24"/>
       <c r="Q55" s="26"/>
     </row>
     <row r="56" spans="1:17" ht="112">
       <c r="A56" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
@@ -5401,17 +5404,17 @@
       <c r="M56" s="26"/>
       <c r="N56" s="26"/>
       <c r="O56" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P56" s="24"/>
       <c r="Q56" s="26"/>
     </row>
     <row r="57" spans="1:17" ht="48">
       <c r="A57" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
@@ -5426,7 +5429,7 @@
       <c r="M57" s="26"/>
       <c r="N57" s="26"/>
       <c r="O57" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P57" s="24"/>
       <c r="Q57" s="26"/>
@@ -5446,10 +5449,10 @@
     </row>
     <row r="59" spans="1:17" ht="112">
       <c r="A59" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
@@ -5464,17 +5467,17 @@
       <c r="M59" s="26"/>
       <c r="N59" s="26"/>
       <c r="O59" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P59" s="24"/>
       <c r="Q59" s="26"/>
     </row>
     <row r="60" spans="1:17" ht="112">
       <c r="A60" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
@@ -5489,17 +5492,17 @@
       <c r="M60" s="26"/>
       <c r="N60" s="26"/>
       <c r="O60" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P60" s="24"/>
       <c r="Q60" s="26"/>
     </row>
     <row r="61" spans="1:17" ht="48">
       <c r="A61" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
@@ -5514,7 +5517,7 @@
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P61" s="24"/>
       <c r="Q61" s="26"/>
@@ -5534,10 +5537,10 @@
     </row>
     <row r="63" spans="1:17" ht="96">
       <c r="A63" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
@@ -5552,17 +5555,17 @@
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P63" s="24"/>
       <c r="Q63" s="26"/>
     </row>
     <row r="64" spans="1:17" ht="96">
       <c r="A64" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
@@ -5577,17 +5580,17 @@
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P64" s="24"/>
       <c r="Q64" s="26"/>
     </row>
     <row r="65" spans="1:1026" ht="48">
       <c r="A65" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
@@ -5602,7 +5605,7 @@
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
       <c r="O65" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P65" s="24"/>
       <c r="Q65" s="26"/>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="67" spans="1:1026" ht="96">
       <c r="A67" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
@@ -5640,17 +5643,17 @@
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
       <c r="O67" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P67" s="24"/>
       <c r="Q67" s="26"/>
     </row>
     <row r="68" spans="1:1026" ht="96">
       <c r="A68" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
@@ -5665,17 +5668,17 @@
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
       <c r="O68" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P68" s="24"/>
       <c r="Q68" s="26"/>
     </row>
     <row r="69" spans="1:1026" ht="48">
       <c r="A69" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
@@ -5690,7 +5693,7 @@
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
       <c r="O69" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P69" s="24"/>
       <c r="Q69" s="26"/>
@@ -5708,12 +5711,12 @@
       <c r="O70" s="22"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:1026" ht="96">
+    <row r="71" spans="1:1026" ht="64">
       <c r="A71" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
@@ -5727,7 +5730,7 @@
       <c r="L71" s="26"/>
       <c r="M71" s="26"/>
       <c r="N71" s="27" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="O71" s="25">
         <v>1</v>
@@ -5750,10 +5753,10 @@
     </row>
     <row r="73" spans="1:1026" ht="32">
       <c r="A73" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
@@ -5768,7 +5771,7 @@
       <c r="M73" s="26"/>
       <c r="N73" s="26"/>
       <c r="O73" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P73" s="24"/>
       <c r="Q73" s="26"/>
@@ -5791,10 +5794,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
@@ -5807,7 +5810,7 @@
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
       <c r="N75" s="29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O75" s="29"/>
       <c r="P75" s="28"/>
@@ -6835,10 +6838,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -6846,7 +6849,7 @@
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
@@ -6859,13 +6862,13 @@
     </row>
     <row r="78" spans="1:1026">
       <c r="A78" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
@@ -6886,13 +6889,13 @@
     </row>
     <row r="79" spans="1:1026">
       <c r="A79" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -6913,19 +6916,19 @@
     </row>
     <row r="80" spans="1:1026" ht="64">
       <c r="A80" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="32"/>
@@ -6934,7 +6937,7 @@
       <c r="L80" s="32"/>
       <c r="M80" s="32"/>
       <c r="N80" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O80" s="32"/>
       <c r="P80" s="30"/>
@@ -6942,19 +6945,19 @@
     </row>
     <row r="81" spans="1:1026" ht="80">
       <c r="A81" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
       <c r="G81" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
@@ -6963,7 +6966,7 @@
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
       <c r="N81" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O81" s="32"/>
       <c r="P81" s="30"/>
@@ -6971,32 +6974,32 @@
     </row>
     <row r="82" spans="1:1026" ht="32">
       <c r="A82" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
       <c r="G82" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H82" s="31"/>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
       <c r="K82" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M82" s="32"/>
       <c r="N82" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="32"/>
       <c r="P82" s="30" t="s">
@@ -7006,7 +7009,7 @@
     </row>
     <row r="83" spans="1:1026" s="23" customFormat="1">
       <c r="A83" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="34"/>
@@ -9056,10 +9059,10 @@
     </row>
     <row r="85" spans="1:1026" ht="64">
       <c r="A85" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -9069,19 +9072,19 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="O85" s="5" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="1:1026">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -9110,10 +9113,10 @@
         <v>11</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -9121,7 +9124,7 @@
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
       <c r="I88" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
@@ -9134,13 +9137,13 @@
     </row>
     <row r="89" spans="1:1026" ht="32">
       <c r="A89" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
@@ -9159,28 +9162,28 @@
     </row>
     <row r="90" spans="1:1026" ht="32">
       <c r="A90" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
       <c r="G90" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" s="31"/>
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
       <c r="K90" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L90" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M90" s="32"/>
       <c r="N90" s="32"/>
@@ -9192,19 +9195,19 @@
     </row>
     <row r="91" spans="1:1026">
       <c r="A91" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
       <c r="G91" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" s="31"/>
       <c r="I91" s="32"/>
@@ -9221,28 +9224,28 @@
     </row>
     <row r="92" spans="1:1026" ht="32">
       <c r="A92" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
       <c r="G92" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H92" s="31"/>
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
       <c r="K92" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L92" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
@@ -9254,28 +9257,28 @@
     </row>
     <row r="93" spans="1:1026" ht="32">
       <c r="A93" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
       <c r="G93" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H93" s="31"/>
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
       <c r="K93" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L93" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M93" s="32"/>
       <c r="N93" s="32"/>
@@ -9287,19 +9290,19 @@
     </row>
     <row r="94" spans="1:1026" ht="48">
       <c r="A94" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
       <c r="G94" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" s="31"/>
       <c r="I94" s="32"/>
@@ -9316,7 +9319,7 @@
     </row>
     <row r="95" spans="1:1026">
       <c r="A95" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B95" s="33"/>
       <c r="C95" s="34"/>
@@ -9350,13 +9353,13 @@
     </row>
     <row r="97" spans="1:1026" ht="48">
       <c r="A97" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -9367,7 +9370,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O97" s="3"/>
       <c r="P97" s="2" t="s">
@@ -9390,10 +9393,10 @@
     </row>
     <row r="99" spans="1:1026">
       <c r="A99" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C99" s="25"/>
       <c r="D99" s="26"/>
@@ -9407,20 +9410,20 @@
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
       <c r="N99" s="26" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P99" s="24"/>
       <c r="Q99" s="26"/>
     </row>
     <row r="100" spans="1:1026">
       <c r="A100" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C100" s="25"/>
       <c r="D100" s="26"/>
@@ -9434,20 +9437,20 @@
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
       <c r="N100" s="26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="P100" s="24"/>
       <c r="Q100" s="26"/>
     </row>
     <row r="101" spans="1:1026">
       <c r="A101" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="26"/>
@@ -9461,10 +9464,10 @@
       <c r="L101" s="26"/>
       <c r="M101" s="26"/>
       <c r="N101" s="26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P101" s="24"/>
       <c r="Q101" s="26"/>
@@ -9484,10 +9487,10 @@
     </row>
     <row r="103" spans="1:1026" ht="112">
       <c r="A103" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103" s="26"/>
@@ -9502,17 +9505,17 @@
       <c r="M103" s="26"/>
       <c r="N103" s="26"/>
       <c r="O103" s="25" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P103" s="24"/>
       <c r="Q103" s="26"/>
     </row>
     <row r="104" spans="1:1026" ht="112">
       <c r="A104" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="26"/>
@@ -9527,17 +9530,17 @@
       <c r="M104" s="26"/>
       <c r="N104" s="26"/>
       <c r="O104" s="25" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P104" s="24"/>
       <c r="Q104" s="26"/>
     </row>
     <row r="105" spans="1:1026" ht="64">
       <c r="A105" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C105" s="25"/>
       <c r="D105" s="26"/>
@@ -9552,7 +9555,7 @@
       <c r="M105" s="26"/>
       <c r="N105" s="26"/>
       <c r="O105" s="25" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P105" s="24"/>
       <c r="Q105" s="26"/>
@@ -9572,10 +9575,10 @@
     </row>
     <row r="107" spans="1:1026" ht="48">
       <c r="A107" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C107" s="25"/>
       <c r="D107" s="26"/>
@@ -9590,7 +9593,7 @@
       <c r="M107" s="26"/>
       <c r="N107" s="26"/>
       <c r="O107" s="27" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P107" s="24"/>
       <c r="Q107" s="26"/>
@@ -10615,7 +10618,7 @@
     </row>
     <row r="109" spans="1:1026">
       <c r="A109" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="44"/>
@@ -10649,10 +10652,10 @@
     </row>
     <row r="111" spans="1:1026">
       <c r="A111" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -10664,7 +10667,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q111" s="3"/>
     </row>
@@ -10686,10 +10689,10 @@
         <v>11</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29"/>
@@ -10702,7 +10705,7 @@
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
       <c r="N113" s="29" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O113" s="29"/>
       <c r="P113" s="28"/>
@@ -11730,10 +11733,10 @@
         <v>11</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
@@ -11741,7 +11744,7 @@
       <c r="G115" s="34"/>
       <c r="H115" s="34"/>
       <c r="I115" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
@@ -11754,13 +11757,13 @@
     </row>
     <row r="116" spans="1:1026">
       <c r="A116" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
@@ -11781,13 +11784,13 @@
     </row>
     <row r="117" spans="1:1026">
       <c r="A117" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
@@ -11808,19 +11811,19 @@
     </row>
     <row r="118" spans="1:1026" ht="64">
       <c r="A118" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
       <c r="F118" s="32"/>
       <c r="G118" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H118" s="32"/>
       <c r="I118" s="32"/>
@@ -11829,7 +11832,7 @@
       <c r="L118" s="32"/>
       <c r="M118" s="32"/>
       <c r="N118" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O118" s="32"/>
       <c r="P118" s="30"/>
@@ -11837,19 +11840,19 @@
     </row>
     <row r="119" spans="1:1026" ht="80">
       <c r="A119" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D119" s="32"/>
       <c r="E119" s="32"/>
       <c r="F119" s="32"/>
       <c r="G119" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H119" s="32"/>
       <c r="I119" s="32"/>
@@ -11858,7 +11861,7 @@
       <c r="L119" s="32"/>
       <c r="M119" s="32"/>
       <c r="N119" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O119" s="32"/>
       <c r="P119" s="30"/>
@@ -11866,32 +11869,32 @@
     </row>
     <row r="120" spans="1:1026" ht="32">
       <c r="A120" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
       <c r="F120" s="32"/>
       <c r="G120" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H120" s="31"/>
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
       <c r="K120" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L120" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M120" s="32"/>
       <c r="N120" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O120" s="32"/>
       <c r="P120" s="30" t="s">
@@ -11901,7 +11904,7 @@
     </row>
     <row r="121" spans="1:1026" s="23" customFormat="1">
       <c r="A121" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="34"/>
@@ -13951,10 +13954,10 @@
     </row>
     <row r="123" spans="1:1026" ht="64">
       <c r="A123" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -13964,19 +13967,19 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="O123" s="5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="Q123" s="3"/>
     </row>
     <row r="124" spans="1:1026">
       <c r="A124" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -14005,10 +14008,10 @@
         <v>11</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -14016,7 +14019,7 @@
       <c r="G126" s="34"/>
       <c r="H126" s="34"/>
       <c r="I126" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J126" s="35"/>
       <c r="K126" s="35"/>
@@ -14029,13 +14032,13 @@
     </row>
     <row r="127" spans="1:1026" ht="32">
       <c r="A127" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
@@ -14054,28 +14057,28 @@
     </row>
     <row r="128" spans="1:1026" ht="32">
       <c r="A128" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
       <c r="G128" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H128" s="31"/>
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
       <c r="K128" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L128" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
@@ -14087,19 +14090,19 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C129" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
       <c r="G129" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H129" s="31"/>
       <c r="I129" s="32"/>
@@ -14116,28 +14119,28 @@
     </row>
     <row r="130" spans="1:17" ht="32">
       <c r="A130" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
       <c r="F130" s="32"/>
       <c r="G130" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H130" s="31"/>
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
       <c r="K130" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L130" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M130" s="32"/>
       <c r="N130" s="32"/>
@@ -14149,28 +14152,28 @@
     </row>
     <row r="131" spans="1:17" ht="32">
       <c r="A131" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
       <c r="F131" s="32"/>
       <c r="G131" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H131" s="31"/>
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
       <c r="K131" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L131" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M131" s="32"/>
       <c r="N131" s="32"/>
@@ -14182,19 +14185,19 @@
     </row>
     <row r="132" spans="1:17" ht="48">
       <c r="A132" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="32"/>
       <c r="F132" s="32"/>
       <c r="G132" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H132" s="31"/>
       <c r="I132" s="32"/>
@@ -14211,7 +14214,7 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B133" s="33"/>
       <c r="C133" s="34"/>
@@ -14245,13 +14248,13 @@
     </row>
     <row r="135" spans="1:17" ht="48">
       <c r="A135" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -14262,7 +14265,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O135" s="3"/>
       <c r="P135" s="2" t="s">
@@ -14285,10 +14288,10 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C137" s="25"/>
       <c r="D137" s="26"/>
@@ -14302,20 +14305,20 @@
       <c r="L137" s="26"/>
       <c r="M137" s="26"/>
       <c r="N137" s="26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O137" s="26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P137" s="24"/>
       <c r="Q137" s="26"/>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C138" s="25"/>
       <c r="D138" s="26"/>
@@ -14329,20 +14332,20 @@
       <c r="L138" s="26"/>
       <c r="M138" s="26"/>
       <c r="N138" s="26" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="O138" s="26" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="P138" s="24"/>
       <c r="Q138" s="26"/>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C139" s="25"/>
       <c r="D139" s="26"/>
@@ -14356,10 +14359,10 @@
       <c r="L139" s="26"/>
       <c r="M139" s="26"/>
       <c r="N139" s="26" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="O139" s="26" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P139" s="24"/>
       <c r="Q139" s="26"/>
@@ -14379,10 +14382,10 @@
     </row>
     <row r="141" spans="1:17" ht="112">
       <c r="A141" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C141" s="25"/>
       <c r="D141" s="26"/>
@@ -14397,17 +14400,17 @@
       <c r="M141" s="26"/>
       <c r="N141" s="26"/>
       <c r="O141" s="25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P141" s="24"/>
       <c r="Q141" s="26"/>
     </row>
     <row r="142" spans="1:17" ht="112">
       <c r="A142" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="26"/>
@@ -14422,17 +14425,17 @@
       <c r="M142" s="26"/>
       <c r="N142" s="26"/>
       <c r="O142" s="25" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P142" s="24"/>
       <c r="Q142" s="26"/>
     </row>
     <row r="143" spans="1:17" ht="64">
       <c r="A143" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="26"/>
@@ -14447,7 +14450,7 @@
       <c r="M143" s="26"/>
       <c r="N143" s="26"/>
       <c r="O143" s="25" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P143" s="24"/>
       <c r="Q143" s="26"/>
@@ -14467,10 +14470,10 @@
     </row>
     <row r="145" spans="1:1026" ht="48">
       <c r="A145" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C145" s="25"/>
       <c r="D145" s="26"/>
@@ -14485,7 +14488,7 @@
       <c r="M145" s="26"/>
       <c r="N145" s="26"/>
       <c r="O145" s="27" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P145" s="24"/>
       <c r="Q145" s="26"/>
@@ -15510,7 +15513,7 @@
     </row>
     <row r="147" spans="1:1026">
       <c r="A147" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B147" s="28"/>
       <c r="C147" s="44"/>
@@ -15544,10 +15547,10 @@
     </row>
     <row r="149" spans="1:1026" ht="32">
       <c r="A149" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -15559,25 +15562,25 @@
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="19" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q149" s="3"/>
     </row>
     <row r="150" spans="1:1026" ht="32">
       <c r="A150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -15593,19 +15596,19 @@
     </row>
     <row r="151" spans="1:1026" ht="32">
       <c r="A151" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -15621,10 +15624,10 @@
     </row>
     <row r="152" spans="1:1026" ht="64">
       <c r="A152" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -15635,7 +15638,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="5" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="O152" s="2">
         <v>1</v>
@@ -15644,10 +15647,10 @@
     </row>
     <row r="153" spans="1:1026" ht="64">
       <c r="A153" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -15658,7 +15661,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="O153" s="2">
         <v>1</v>
@@ -15667,10 +15670,10 @@
     </row>
     <row r="154" spans="1:1026" ht="64">
       <c r="A154" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -15681,7 +15684,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="5" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="O154" s="2">
         <v>1</v>
@@ -15712,10 +15715,10 @@
         <v>11</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -15728,7 +15731,7 @@
       <c r="L156" s="8"/>
       <c r="M156" s="8"/>
       <c r="N156" s="9" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="O156" s="9"/>
       <c r="P156" s="8"/>
@@ -15736,13 +15739,13 @@
     </row>
     <row r="157" spans="1:1026">
       <c r="A157" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -15754,19 +15757,19 @@
     </row>
     <row r="158" spans="1:1026" ht="32">
       <c r="A158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C158" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="N158" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="N158" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="2" t="s">
@@ -15775,16 +15778,16 @@
     </row>
     <row r="159" spans="1:1026" ht="48">
       <c r="A159" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
@@ -15794,16 +15797,16 @@
     </row>
     <row r="160" spans="1:1026" ht="64">
       <c r="A160" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G160" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -15813,19 +15816,19 @@
     </row>
     <row r="161" spans="1:17" ht="64">
       <c r="A161" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="C161" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="N161" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="N161" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="O161" s="3"/>
       <c r="P161" s="2" t="s">
@@ -15834,18 +15837,18 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="N162" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="2" t="s">
@@ -15854,19 +15857,19 @@
     </row>
     <row r="163" spans="1:17" ht="48">
       <c r="A163" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G163" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O163" s="3"/>
       <c r="P163" s="2" t="s">
@@ -15875,19 +15878,19 @@
     </row>
     <row r="164" spans="1:17" ht="32">
       <c r="A164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="G164" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="N164" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="N164" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="O164" s="3"/>
       <c r="P164" s="2" t="s">
@@ -15896,16 +15899,16 @@
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="N165" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="N165" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="O165" s="3"/>
       <c r="P165" s="2" t="s">
@@ -15914,13 +15917,13 @@
     </row>
     <row r="166" spans="1:17" s="2" customFormat="1" ht="32">
       <c r="A166" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -15930,24 +15933,24 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="N166" s="3"/>
-      <c r="O166" s="5" t="s">
-        <v>431</v>
+      <c r="O166" s="47" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="32">
       <c r="A167" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -15972,7 +15975,7 @@
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -15997,16 +16000,16 @@
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -16015,7 +16018,7 @@
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -16040,13 +16043,13 @@
     </row>
     <row r="176" spans="1:17" ht="32">
       <c r="A176" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="C176" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
@@ -16059,7 +16062,7 @@
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
       <c r="N176" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O176" s="13"/>
       <c r="P176" s="13"/>
@@ -16082,13 +16085,13 @@
     </row>
     <row r="178" spans="1:17" ht="64">
       <c r="A178" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B178" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -16133,7 +16136,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -16145,679 +16148,679 @@
         <v>3</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B13" s="3">
         <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B61" s="3">
         <v>5</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="3">
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1">
       <c r="A69" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="4">
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="4">
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1">
       <c r="A71" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -16829,13 +16832,13 @@
     </row>
     <row r="73" spans="1:7" s="4" customFormat="1">
       <c r="A73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E73" s="3"/>
       <c r="G73" s="4">
@@ -16844,13 +16847,13 @@
     </row>
     <row r="74" spans="1:7" s="4" customFormat="1">
       <c r="A74" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="3"/>
       <c r="G74" s="4">
@@ -16859,13 +16862,13 @@
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1">
       <c r="A75" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="3"/>
       <c r="G75" s="4">
@@ -16874,13 +16877,13 @@
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1">
       <c r="A76" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="3"/>
       <c r="G76" s="4">
@@ -16889,13 +16892,13 @@
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1">
       <c r="A77" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="3"/>
       <c r="G77" s="4">
@@ -16904,13 +16907,13 @@
     </row>
     <row r="78" spans="1:7" s="4" customFormat="1">
       <c r="A78" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="3"/>
       <c r="G78" s="4">
@@ -16919,13 +16922,13 @@
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1">
       <c r="A79" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E79" s="3"/>
       <c r="G79" s="4">
@@ -16934,13 +16937,13 @@
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1">
       <c r="A80" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E80" s="3"/>
       <c r="G80" s="4">
@@ -16949,13 +16952,13 @@
     </row>
     <row r="81" spans="1:7" s="4" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="3"/>
       <c r="G81" s="4">
@@ -16964,13 +16967,13 @@
     </row>
     <row r="82" spans="1:7" s="4" customFormat="1">
       <c r="A82" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82" s="3"/>
       <c r="G82" s="4">
@@ -16979,13 +16982,13 @@
     </row>
     <row r="83" spans="1:7" s="4" customFormat="1">
       <c r="A83" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E83" s="3"/>
       <c r="G83" s="4">
@@ -16994,13 +16997,13 @@
     </row>
     <row r="84" spans="1:7" s="4" customFormat="1">
       <c r="A84" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="3"/>
       <c r="G84" s="4">
@@ -17009,13 +17012,13 @@
     </row>
     <row r="85" spans="1:7" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E85" s="3"/>
       <c r="G85" s="4">
@@ -17024,13 +17027,13 @@
     </row>
     <row r="86" spans="1:7" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="3"/>
       <c r="G86" s="4">
@@ -17039,13 +17042,13 @@
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1">
       <c r="A87" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" s="3"/>
       <c r="G87" s="4">
@@ -17054,13 +17057,13 @@
     </row>
     <row r="88" spans="1:7" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" s="3"/>
       <c r="G88" s="4">
@@ -17069,13 +17072,13 @@
     </row>
     <row r="89" spans="1:7" s="4" customFormat="1">
       <c r="A89" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E89" s="3"/>
       <c r="G89" s="4">
@@ -17084,13 +17087,13 @@
     </row>
     <row r="90" spans="1:7" s="4" customFormat="1">
       <c r="A90" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="3"/>
       <c r="G90" s="4">
@@ -17099,13 +17102,13 @@
     </row>
     <row r="91" spans="1:7" s="4" customFormat="1">
       <c r="A91" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" s="3"/>
       <c r="G91" s="4">
@@ -17114,13 +17117,13 @@
     </row>
     <row r="92" spans="1:7" s="4" customFormat="1">
       <c r="A92" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="3"/>
       <c r="G92" s="4">
@@ -17129,13 +17132,13 @@
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1">
       <c r="A93" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E93" s="3"/>
       <c r="G93" s="4">
@@ -17144,13 +17147,13 @@
     </row>
     <row r="94" spans="1:7" s="4" customFormat="1">
       <c r="A94" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E94" s="3"/>
       <c r="G94" s="4">
@@ -17159,13 +17162,13 @@
     </row>
     <row r="95" spans="1:7" s="4" customFormat="1">
       <c r="A95" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E95" s="3"/>
       <c r="G95" s="4">
@@ -17174,13 +17177,13 @@
     </row>
     <row r="96" spans="1:7" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E96" s="3"/>
       <c r="G96" s="4">
@@ -17189,13 +17192,13 @@
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1">
       <c r="A97" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E97" s="3"/>
       <c r="G97" s="4">
@@ -17204,13 +17207,13 @@
     </row>
     <row r="98" spans="1:7" s="4" customFormat="1">
       <c r="A98" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E98" s="3"/>
       <c r="G98" s="4">
@@ -17219,13 +17222,13 @@
     </row>
     <row r="99" spans="1:7" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E99" s="3"/>
       <c r="G99" s="4">
@@ -17234,13 +17237,13 @@
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1">
       <c r="A100" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E100" s="3"/>
       <c r="G100" s="4">
@@ -17249,13 +17252,13 @@
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101" s="3"/>
       <c r="G101" s="4">
@@ -17264,13 +17267,13 @@
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1">
       <c r="A102" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E102" s="3"/>
       <c r="G102" s="4">
@@ -17279,13 +17282,13 @@
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1">
       <c r="A103" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E103" s="3"/>
       <c r="G103" s="4">
@@ -17294,13 +17297,13 @@
     </row>
     <row r="104" spans="1:7" s="4" customFormat="1">
       <c r="A104" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E104" s="3"/>
       <c r="G104" s="4">
@@ -17309,13 +17312,13 @@
     </row>
     <row r="105" spans="1:7" s="4" customFormat="1">
       <c r="A105" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E105" s="3"/>
       <c r="G105" s="4">
@@ -17324,13 +17327,13 @@
     </row>
     <row r="106" spans="1:7" s="4" customFormat="1">
       <c r="A106" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" s="3"/>
       <c r="G106" s="4">
@@ -17339,13 +17342,13 @@
     </row>
     <row r="107" spans="1:7" s="4" customFormat="1">
       <c r="A107" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E107" s="3"/>
       <c r="G107" s="4">
@@ -17354,13 +17357,13 @@
     </row>
     <row r="108" spans="1:7" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E108" s="3"/>
       <c r="G108" s="4">
@@ -17369,13 +17372,13 @@
     </row>
     <row r="109" spans="1:7" s="4" customFormat="1">
       <c r="A109" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E109" s="3"/>
       <c r="G109" s="4">
@@ -17384,13 +17387,13 @@
     </row>
     <row r="110" spans="1:7" s="4" customFormat="1">
       <c r="A110" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E110" s="3"/>
       <c r="G110" s="4">
@@ -17399,13 +17402,13 @@
     </row>
     <row r="111" spans="1:7" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E111" s="3"/>
       <c r="G111" s="4">
@@ -17414,13 +17417,13 @@
     </row>
     <row r="112" spans="1:7" s="4" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112" s="3"/>
       <c r="G112" s="4">
@@ -17429,13 +17432,13 @@
     </row>
     <row r="113" spans="1:7" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E113" s="3"/>
       <c r="G113" s="4">
@@ -17444,13 +17447,13 @@
     </row>
     <row r="114" spans="1:7" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E114" s="3"/>
       <c r="G114" s="4">
@@ -17459,13 +17462,13 @@
     </row>
     <row r="115" spans="1:7" s="4" customFormat="1">
       <c r="A115" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E115" s="3"/>
       <c r="G115" s="4">
@@ -17474,13 +17477,13 @@
     </row>
     <row r="116" spans="1:7" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E116" s="3"/>
       <c r="G116" s="4">
@@ -17489,13 +17492,13 @@
     </row>
     <row r="117" spans="1:7" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E117" s="3"/>
       <c r="G117" s="4">
@@ -17504,13 +17507,13 @@
     </row>
     <row r="118" spans="1:7" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E118" s="3"/>
       <c r="G118" s="4">
@@ -17519,13 +17522,13 @@
     </row>
     <row r="119" spans="1:7" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E119" s="3"/>
       <c r="G119" s="4">
@@ -17534,13 +17537,13 @@
     </row>
     <row r="120" spans="1:7" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E120" s="3"/>
       <c r="G120" s="4">
@@ -17549,13 +17552,13 @@
     </row>
     <row r="121" spans="1:7" s="4" customFormat="1">
       <c r="A121" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E121" s="3"/>
       <c r="G121" s="4">
@@ -17564,13 +17567,13 @@
     </row>
     <row r="122" spans="1:7" s="4" customFormat="1">
       <c r="A122" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E122" s="3"/>
       <c r="G122" s="4">
@@ -17579,13 +17582,13 @@
     </row>
     <row r="123" spans="1:7" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E123" s="3"/>
       <c r="G123" s="4">
@@ -17594,13 +17597,13 @@
     </row>
     <row r="124" spans="1:7" s="4" customFormat="1">
       <c r="A124" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E124" s="3"/>
       <c r="G124" s="4">
@@ -17609,13 +17612,13 @@
     </row>
     <row r="125" spans="1:7" s="4" customFormat="1">
       <c r="A125" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E125" s="3"/>
       <c r="G125" s="4">
@@ -17624,13 +17627,13 @@
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E126" s="3"/>
       <c r="G126" s="4">
@@ -17639,13 +17642,13 @@
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1">
       <c r="A127" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E127" s="3"/>
       <c r="G127" s="4">
@@ -17654,13 +17657,13 @@
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1">
       <c r="A128" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E128" s="3"/>
       <c r="G128" s="4">
@@ -17669,13 +17672,13 @@
     </row>
     <row r="129" spans="1:7" s="4" customFormat="1">
       <c r="A129" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E129" s="3"/>
       <c r="G129" s="4">
@@ -17684,13 +17687,13 @@
     </row>
     <row r="130" spans="1:7" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E130" s="3"/>
       <c r="G130" s="4">
@@ -17699,13 +17702,13 @@
     </row>
     <row r="131" spans="1:7" s="4" customFormat="1">
       <c r="A131" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E131" s="3"/>
       <c r="G131" s="4">
@@ -17714,13 +17717,13 @@
     </row>
     <row r="132" spans="1:7" s="4" customFormat="1">
       <c r="A132" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E132" s="3"/>
       <c r="G132" s="4">
@@ -17729,13 +17732,13 @@
     </row>
     <row r="133" spans="1:7" s="4" customFormat="1">
       <c r="A133" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E133" s="3"/>
       <c r="G133" s="4">
@@ -17744,13 +17747,13 @@
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1">
       <c r="A134" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E134" s="3"/>
       <c r="G134" s="4">
@@ -17759,13 +17762,13 @@
     </row>
     <row r="135" spans="1:7" s="4" customFormat="1">
       <c r="A135" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E135" s="3"/>
       <c r="G135" s="4">
@@ -17774,13 +17777,13 @@
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1">
       <c r="A136" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E136" s="3"/>
       <c r="G136" s="4">
@@ -17789,13 +17792,13 @@
     </row>
     <row r="137" spans="1:7" s="4" customFormat="1">
       <c r="A137" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E137" s="3"/>
       <c r="G137" s="4">
@@ -17804,13 +17807,13 @@
     </row>
     <row r="138" spans="1:7" s="4" customFormat="1">
       <c r="A138" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E138" s="3"/>
       <c r="G138" s="4">
@@ -17819,13 +17822,13 @@
     </row>
     <row r="139" spans="1:7" s="4" customFormat="1">
       <c r="A139" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E139" s="3"/>
       <c r="G139" s="4">
@@ -17834,13 +17837,13 @@
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1">
       <c r="A140" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E140" s="3"/>
       <c r="G140" s="4">
@@ -17849,13 +17852,13 @@
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1">
       <c r="A141" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E141" s="3"/>
       <c r="G141" s="4">
@@ -17864,13 +17867,13 @@
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1">
       <c r="A142" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E142" s="3"/>
       <c r="G142" s="4">
@@ -17879,13 +17882,13 @@
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1">
       <c r="A143" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E143" s="3"/>
       <c r="G143" s="4">
@@ -17894,13 +17897,13 @@
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1">
       <c r="A144" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E144" s="3"/>
       <c r="G144" s="4">
@@ -17909,13 +17912,13 @@
     </row>
     <row r="145" spans="1:7" s="4" customFormat="1">
       <c r="A145" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E145" s="3"/>
       <c r="G145" s="4">
@@ -17924,13 +17927,13 @@
     </row>
     <row r="146" spans="1:7" s="4" customFormat="1">
       <c r="A146" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E146" s="3"/>
       <c r="G146" s="4">
@@ -17939,13 +17942,13 @@
     </row>
     <row r="147" spans="1:7" s="4" customFormat="1">
       <c r="A147" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E147" s="3"/>
       <c r="G147" s="4">
@@ -17954,13 +17957,13 @@
     </row>
     <row r="148" spans="1:7" s="4" customFormat="1">
       <c r="A148" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E148" s="3"/>
       <c r="G148" s="4">
@@ -17969,13 +17972,13 @@
     </row>
     <row r="149" spans="1:7" s="4" customFormat="1">
       <c r="A149" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E149" s="3"/>
       <c r="G149" s="4">
@@ -17984,13 +17987,13 @@
     </row>
     <row r="150" spans="1:7" s="4" customFormat="1">
       <c r="A150" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E150" s="3"/>
       <c r="G150" s="4">
@@ -17999,13 +18002,13 @@
     </row>
     <row r="151" spans="1:7" s="4" customFormat="1">
       <c r="A151" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E151" s="3"/>
       <c r="G151" s="4">
@@ -18014,13 +18017,13 @@
     </row>
     <row r="152" spans="1:7" s="4" customFormat="1">
       <c r="A152" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E152" s="3"/>
       <c r="G152" s="4">
@@ -18029,13 +18032,13 @@
     </row>
     <row r="153" spans="1:7" s="4" customFormat="1">
       <c r="A153" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E153" s="3"/>
       <c r="G153" s="4">
@@ -18044,13 +18047,13 @@
     </row>
     <row r="154" spans="1:7" s="4" customFormat="1">
       <c r="A154" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E154" s="3"/>
       <c r="G154" s="4">
@@ -18059,13 +18062,13 @@
     </row>
     <row r="155" spans="1:7" s="4" customFormat="1">
       <c r="A155" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E155" s="3"/>
       <c r="G155" s="4">
@@ -18074,13 +18077,13 @@
     </row>
     <row r="156" spans="1:7" s="4" customFormat="1">
       <c r="A156" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E156" s="3"/>
       <c r="G156" s="4">
@@ -18089,13 +18092,13 @@
     </row>
     <row r="157" spans="1:7" s="4" customFormat="1">
       <c r="A157" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E157" s="3"/>
       <c r="G157" s="4">
@@ -18104,13 +18107,13 @@
     </row>
     <row r="158" spans="1:7" s="4" customFormat="1">
       <c r="A158" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E158" s="3"/>
       <c r="G158" s="4">
@@ -18119,13 +18122,13 @@
     </row>
     <row r="159" spans="1:7" s="4" customFormat="1">
       <c r="A159" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E159" s="3"/>
       <c r="G159" s="4">
@@ -18134,13 +18137,13 @@
     </row>
     <row r="160" spans="1:7" s="4" customFormat="1">
       <c r="A160" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E160" s="3"/>
       <c r="G160" s="4">
@@ -18149,13 +18152,13 @@
     </row>
     <row r="161" spans="1:7" s="4" customFormat="1">
       <c r="A161" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E161" s="3"/>
       <c r="G161" s="4">
@@ -18164,13 +18167,13 @@
     </row>
     <row r="162" spans="1:7" s="4" customFormat="1">
       <c r="A162" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E162" s="3"/>
       <c r="G162" s="4">
@@ -18204,33 +18207,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/liberiaCoverage.xlsx
+++ b/liberiaCoverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E53D24B-C0F2-8B4E-8BB2-340D795C02C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC038C-F6ED-6D4D-B292-E1D366D58932}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="460" windowWidth="39240" windowHeight="28200" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="583">
   <si>
     <t>type</t>
   </si>
@@ -1620,6 +1620,162 @@
   </si>
   <si>
     <t>Have you heard about [LOCAL NAME OF MNP] or seen [show sample/photo of MNP]?</t>
+  </si>
+  <si>
+    <t>mnp2</t>
+  </si>
+  <si>
+    <t>Have you received or bought [LOCAL NAME OF MNP] (show sample/photo of MNP) for your child aged 6-23 months?</t>
+  </si>
+  <si>
+    <t>select_multiple mnp_reasons1</t>
+  </si>
+  <si>
+    <t>mnp2a</t>
+  </si>
+  <si>
+    <t>Why did you not receive/buy [LOCAL NAME OF MNP] (show sample/photo of MNP) for your child aged 6-23 months?</t>
+  </si>
+  <si>
+    <t>selected(${mnp2}, '1')</t>
+  </si>
+  <si>
+    <t>selected(${mnp2}, '2')</t>
+  </si>
+  <si>
+    <t>mnp2a_other</t>
+  </si>
+  <si>
+    <t>selected(${mnp2a}, '88')</t>
+  </si>
+  <si>
+    <t>mnp3</t>
+  </si>
+  <si>
+    <t>Did you give your child aged 6-23 months the [LOCAL NAME OF MNP] (show sample/photo of MNP) to eat?</t>
+  </si>
+  <si>
+    <t>select_multiple mnp_reasons2</t>
+  </si>
+  <si>
+    <t>mnp3a</t>
+  </si>
+  <si>
+    <t>Why did you not give the [LOCAL NAME OF MNP} (show sample/photo of MNP) to your child aged 6-23 months to eat?</t>
+  </si>
+  <si>
+    <t>selected(${mnp3}, '2')</t>
+  </si>
+  <si>
+    <t>mnp3a_other</t>
+  </si>
+  <si>
+    <t>selected(${mnp3a}, '88')</t>
+  </si>
+  <si>
+    <t>mnp4</t>
+  </si>
+  <si>
+    <t>In the last week, how many times did your child aged 6-23 months old eat [LOCAL NAME OF MNP] (show sample/photo of MNP)?</t>
+  </si>
+  <si>
+    <t>selected(${mnp3}, '1')</t>
+  </si>
+  <si>
+    <t>${ch} = ${child} and (age &lt;= 23 or age1 &lt;= 23 or age2 &lt;= 23)</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation</t>
+  </si>
+  <si>
+    <t>vit1</t>
+  </si>
+  <si>
+    <t>In the past 6 months, has your child received drops from a capsule like this one (show vitamin A sample or photo)?</t>
+  </si>
+  <si>
+    <t>select_multiple vit_reasons1</t>
+  </si>
+  <si>
+    <t>vit1a</t>
+  </si>
+  <si>
+    <t>Why did your child not receive (show vitamin A capsule sample or photo)?</t>
+  </si>
+  <si>
+    <t>selected(${vit1}, '2')</t>
+  </si>
+  <si>
+    <t>vit1a_other</t>
+  </si>
+  <si>
+    <t>selected(${vit1a}, '88')</t>
+  </si>
+  <si>
+    <t>vit2</t>
+  </si>
+  <si>
+    <t>What type of capsule (show sample or photo of blue and red capsule) did your child get drops from?</t>
+  </si>
+  <si>
+    <t>select_one vit</t>
+  </si>
+  <si>
+    <t>selected(${vit1}, '1')</t>
+  </si>
+  <si>
+    <t>vit3</t>
+  </si>
+  <si>
+    <t>How many months ago did your child receive drops from (show vitamin A sample or photo)?</t>
+  </si>
+  <si>
+    <t>mnp_reasons1</t>
+  </si>
+  <si>
+    <t>Took too long to get MNP</t>
+  </si>
+  <si>
+    <t>Child doesn't need it</t>
+  </si>
+  <si>
+    <t>Heard it doesn't work/help</t>
+  </si>
+  <si>
+    <t>mnp_reasons2</t>
+  </si>
+  <si>
+    <t>Not available in the market</t>
+  </si>
+  <si>
+    <t>Do not need MNP</t>
+  </si>
+  <si>
+    <t>Heard other's bad experience</t>
+  </si>
+  <si>
+    <t>Advised not to use it</t>
+  </si>
+  <si>
+    <t>Not seen other mothers use it</t>
+  </si>
+  <si>
+    <t>Don't trust the product</t>
+  </si>
+  <si>
+    <t>Using another product</t>
+  </si>
+  <si>
+    <t>Haven't seen it</t>
+  </si>
+  <si>
+    <t>vit_reasons1</t>
+  </si>
+  <si>
+    <t>Took too long to get drops</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1976,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2205,13 +2361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q221"/>
+  <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D182" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
+      <selection pane="bottomRight" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="16"/>
@@ -3502,39 +3658,56 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="48">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="O50" s="5" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19" t="s">
         <v>428</v>
       </c>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="P51" s="2" t="s">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q51" s="18"/>
     </row>
     <row r="52" spans="1:17">
       <c r="D52" s="2"/>
@@ -3891,27 +4064,33 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:17" ht="48">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="N66" s="2" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2" t="s">
+      <c r="O66" s="18"/>
+      <c r="P66" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q66" s="18"/>
     </row>
     <row r="67" spans="1:17">
       <c r="D67" s="2"/>
@@ -4903,39 +5082,56 @@
       <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:17" ht="64">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="O114" s="5" t="s">
+      <c r="C114" s="19"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19" t="s">
         <v>429</v>
       </c>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="P115" s="2" t="s">
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q115" s="18"/>
     </row>
     <row r="116" spans="1:17">
       <c r="D116" s="2"/>
@@ -5184,27 +5380,33 @@
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="1:17" ht="48">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="N126" s="2" t="s">
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2" t="s">
+      <c r="O126" s="18"/>
+      <c r="P126" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q126" s="18"/>
     </row>
     <row r="127" spans="1:17">
       <c r="D127" s="2"/>
@@ -5451,21 +5653,29 @@
       <c r="O139" s="2"/>
     </row>
     <row r="140" spans="1:17">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2" t="s">
+      <c r="C140" s="19"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18" t="s">
         <v>366</v>
       </c>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
     </row>
     <row r="141" spans="1:17">
       <c r="D141" s="2"/>
@@ -5709,39 +5919,56 @@
       <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:17" ht="64">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="O152" s="5" t="s">
+      <c r="C152" s="19"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19" t="s">
         <v>430</v>
       </c>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
     </row>
     <row r="153" spans="1:17">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="P153" s="2" t="s">
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q153" s="18"/>
     </row>
     <row r="154" spans="1:17">
       <c r="D154" s="2"/>
@@ -5990,27 +6217,33 @@
       <c r="O163" s="2"/>
     </row>
     <row r="164" spans="1:17" ht="48">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="N164" s="2" t="s">
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2" t="s">
+      <c r="O164" s="18"/>
+      <c r="P164" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q164" s="18"/>
     </row>
     <row r="165" spans="1:17">
       <c r="D165" s="2"/>
@@ -6257,126 +6490,168 @@
       <c r="O177" s="2"/>
     </row>
     <row r="178" spans="1:17" ht="32">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="5" t="s">
+      <c r="C178" s="19"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
+      <c r="O178" s="19" t="s">
         <v>400</v>
       </c>
+      <c r="P178" s="18"/>
+      <c r="Q178" s="18"/>
     </row>
     <row r="179" spans="1:17" ht="32">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="5" t="s">
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2" t="s">
+      <c r="H179" s="19"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q179" s="18"/>
     </row>
     <row r="180" spans="1:17" ht="32">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="5" t="s">
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2" t="s">
+      <c r="H180" s="19"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18" t="s">
         <v>16</v>
       </c>
+      <c r="Q180" s="18"/>
     </row>
     <row r="181" spans="1:17" ht="64">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="N181" s="5" t="s">
+      <c r="C181" s="19"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="O181" s="2">
+      <c r="O181" s="18">
         <v>1</v>
       </c>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="18"/>
     </row>
     <row r="182" spans="1:17" ht="64">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="N182" s="5" t="s">
+      <c r="C182" s="19"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="O182" s="2">
+      <c r="O182" s="18">
         <v>1</v>
       </c>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="18"/>
     </row>
     <row r="183" spans="1:17" ht="64">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="N183" s="5" t="s">
+      <c r="C183" s="19"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="O183" s="2">
+      <c r="O183" s="18">
         <v>1</v>
       </c>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
     </row>
     <row r="184" spans="1:17">
       <c r="C184" s="2"/>
@@ -6418,208 +6693,323 @@
       <c r="Q185" s="8"/>
     </row>
     <row r="186" spans="1:17">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="O186" s="2"/>
-      <c r="P186" s="2" t="s">
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="21"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="21"/>
+      <c r="O186" s="21"/>
+      <c r="P186" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q186" s="21"/>
     </row>
     <row r="187" spans="1:17" ht="32">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N187" s="5" t="s">
+      <c r="H187" s="22"/>
+      <c r="I187" s="22"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="21"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2" t="s">
+      <c r="O187" s="21"/>
+      <c r="P187" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q187" s="21"/>
     </row>
     <row r="188" spans="1:17" ht="48">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2" t="s">
+      <c r="H188" s="22"/>
+      <c r="I188" s="22"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="21"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="21"/>
+      <c r="O188" s="21"/>
+      <c r="P188" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q188" s="21"/>
     </row>
     <row r="189" spans="1:17" ht="64">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G189" s="5" t="s">
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2" t="s">
+      <c r="H189" s="22"/>
+      <c r="I189" s="22"/>
+      <c r="J189" s="22"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="21"/>
+      <c r="M189" s="21"/>
+      <c r="N189" s="21"/>
+      <c r="O189" s="21"/>
+      <c r="P189" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q189" s="21"/>
     </row>
     <row r="190" spans="1:17" ht="64">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N190" s="5" t="s">
+      <c r="H190" s="22"/>
+      <c r="I190" s="22"/>
+      <c r="J190" s="22"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="21"/>
+      <c r="M190" s="21"/>
+      <c r="N190" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2" t="s">
+      <c r="O190" s="21"/>
+      <c r="P190" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q190" s="21"/>
     </row>
     <row r="191" spans="1:17">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="N191" s="5" t="s">
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="22"/>
+      <c r="J191" s="22"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="21"/>
+      <c r="M191" s="21"/>
+      <c r="N191" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O191" s="2"/>
-      <c r="P191" s="2" t="s">
+      <c r="O191" s="21"/>
+      <c r="P191" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q191" s="21"/>
     </row>
     <row r="192" spans="1:17" ht="48">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="H192" s="22"/>
+      <c r="I192" s="22"/>
+      <c r="J192" s="22"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="21"/>
+      <c r="M192" s="21"/>
+      <c r="N192" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2" t="s">
+      <c r="O192" s="21"/>
+      <c r="P192" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q192" s="21"/>
     </row>
     <row r="193" spans="1:17" ht="32">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="21"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="21"/>
+      <c r="N193" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2" t="s">
+      <c r="O193" s="21"/>
+      <c r="P193" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q193" s="21"/>
     </row>
     <row r="194" spans="1:17">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="22"/>
+      <c r="J194" s="22"/>
+      <c r="K194" s="21"/>
+      <c r="L194" s="21"/>
+      <c r="M194" s="21"/>
+      <c r="N194" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2" t="s">
+      <c r="O194" s="21"/>
+      <c r="P194" s="21" t="s">
         <v>16</v>
       </c>
+      <c r="Q194" s="21"/>
     </row>
     <row r="195" spans="1:17" ht="32">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="N195" s="2"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="22"/>
+      <c r="J195" s="22"/>
+      <c r="K195" s="21"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="21"/>
+      <c r="N195" s="21"/>
       <c r="O195" s="31" t="s">
         <v>443</v>
       </c>
+      <c r="P195" s="21"/>
+      <c r="Q195" s="21"/>
     </row>
     <row r="196" spans="1:17" ht="32">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="22" t="s">
         <v>419</v>
       </c>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="22"/>
+      <c r="J196" s="22"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="21"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="22"/>
+      <c r="P196" s="21"/>
+      <c r="Q196" s="21"/>
     </row>
     <row r="197" spans="1:17">
       <c r="A197" s="8" t="s">
@@ -6646,204 +7036,647 @@
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:17">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="N199" s="5" t="s">
+      <c r="C199" s="18"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="O199" s="5" t="s">
+      <c r="O199" s="19" t="s">
         <v>524</v>
       </c>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="18"/>
     </row>
     <row r="200" spans="1:17">
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="1:17">
-      <c r="A201" s="2" t="s">
+    <row r="201" spans="1:17" ht="32">
+      <c r="A201" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="N201" s="5" t="s">
-        <v>525</v>
-      </c>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="30"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="20"/>
+      <c r="M201" s="20"/>
+      <c r="N201" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="O201" s="30"/>
+      <c r="P201" s="20"/>
+      <c r="Q201" s="20"/>
     </row>
     <row r="202" spans="1:17" ht="32">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="P202" s="2" t="s">
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="22"/>
+      <c r="J202" s="22"/>
+      <c r="K202" s="21"/>
+      <c r="L202" s="21"/>
+      <c r="M202" s="21"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:17">
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="1:17">
-      <c r="C204" s="2"/>
+      <c r="Q202" s="21"/>
+    </row>
+    <row r="203" spans="1:17" ht="48">
+      <c r="A203" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B203" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="22"/>
+      <c r="J203" s="22"/>
+      <c r="K203" s="21"/>
+      <c r="L203" s="21"/>
+      <c r="M203" s="21"/>
+      <c r="N203" s="22"/>
+      <c r="O203" s="22"/>
+      <c r="P203" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q203" s="21"/>
+    </row>
+    <row r="204" spans="1:17" ht="48">
+      <c r="A204" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B204" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H204" s="22"/>
+      <c r="I204" s="22"/>
+      <c r="J204" s="22"/>
+      <c r="K204" s="21"/>
+      <c r="L204" s="21"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="O204" s="22"/>
+      <c r="P204" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q204" s="21"/>
     </row>
     <row r="205" spans="1:17">
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="1:17">
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="1:17">
-      <c r="C207" s="2"/>
+      <c r="A205" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B205" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="21"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="O205" s="22"/>
+      <c r="P205" s="21"/>
+      <c r="Q205" s="21"/>
+    </row>
+    <row r="206" spans="1:17" ht="48">
+      <c r="A206" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
+      <c r="I206" s="22"/>
+      <c r="J206" s="22"/>
+      <c r="K206" s="21"/>
+      <c r="L206" s="21"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="O206" s="22"/>
+      <c r="P206" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q206" s="21"/>
+    </row>
+    <row r="207" spans="1:17" ht="48">
+      <c r="A207" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H207" s="22"/>
+      <c r="I207" s="22"/>
+      <c r="J207" s="22"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="21"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="O207" s="22"/>
+      <c r="P207" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q207" s="21"/>
     </row>
     <row r="208" spans="1:17">
-      <c r="A208" s="20" t="s">
+      <c r="A208" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="22"/>
+      <c r="J208" s="22"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="21"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="O208" s="22"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+    </row>
+    <row r="209" spans="1:17" ht="48">
+      <c r="A209" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="22"/>
+      <c r="J209" s="22"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="O209" s="22"/>
+      <c r="P209" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q209" s="21"/>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="A210" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="30"/>
-      <c r="F208" s="30"/>
-      <c r="G208" s="30"/>
-      <c r="H208" s="30"/>
-      <c r="I208" s="30"/>
-      <c r="J208" s="30"/>
-      <c r="K208" s="20"/>
-      <c r="L208" s="20"/>
-      <c r="M208" s="20"/>
-      <c r="N208" s="30"/>
-      <c r="O208" s="30"/>
-      <c r="P208" s="20"/>
-      <c r="Q208" s="20"/>
-    </row>
-    <row r="209" spans="1:17">
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:17">
-      <c r="A210" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="N210" s="5" t="s">
-        <v>418</v>
-      </c>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="30"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+      <c r="M210" s="20"/>
+      <c r="N210" s="30"/>
+      <c r="O210" s="30"/>
+      <c r="P210" s="20"/>
+      <c r="Q210" s="20"/>
     </row>
     <row r="211" spans="1:17">
       <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:17">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C212" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+      <c r="M212" s="20"/>
+      <c r="N212" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="O212" s="30"/>
+      <c r="P212" s="20"/>
+      <c r="Q212" s="20"/>
+    </row>
+    <row r="213" spans="1:17" ht="48">
+      <c r="A213" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="B213" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="22"/>
+      <c r="J213" s="22"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="22"/>
+      <c r="O213" s="22"/>
+      <c r="P213" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q213" s="21"/>
+    </row>
+    <row r="214" spans="1:17" ht="32">
+      <c r="A214" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" s="22"/>
+      <c r="I214" s="22"/>
+      <c r="J214" s="22"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="O214" s="22"/>
+      <c r="P214" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q214" s="21"/>
+    </row>
+    <row r="215" spans="1:17">
+      <c r="A215" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
+      <c r="I215" s="22"/>
+      <c r="J215" s="22"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="O215" s="22"/>
+      <c r="P215" s="21"/>
+      <c r="Q215" s="21"/>
+    </row>
+    <row r="216" spans="1:17" ht="48">
+      <c r="A216" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="B216" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
+      <c r="J216" s="22"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="21"/>
+      <c r="N216" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="O216" s="22"/>
+      <c r="P216" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q216" s="21"/>
+    </row>
+    <row r="217" spans="1:17" ht="48">
+      <c r="A217" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
+      <c r="I217" s="22"/>
+      <c r="J217" s="22"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="21"/>
+      <c r="M217" s="21"/>
+      <c r="N217" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="O217" s="22"/>
+      <c r="P217" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q217" s="21"/>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="A218" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+      <c r="M218" s="20"/>
+      <c r="N218" s="30"/>
+      <c r="O218" s="30"/>
+      <c r="P218" s="20"/>
+      <c r="Q218" s="20"/>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+      <c r="M220" s="20"/>
+      <c r="N220" s="30"/>
+      <c r="O220" s="30"/>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="A222" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="O222" s="11"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="14"/>
-      <c r="I212" s="14"/>
-      <c r="J212" s="14"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="13"/>
-      <c r="N212" s="14"/>
-      <c r="O212" s="14"/>
-      <c r="P212" s="13"/>
-      <c r="Q212" s="13"/>
-    </row>
-    <row r="213" spans="1:17">
-      <c r="C213" s="2"/>
-    </row>
-    <row r="215" spans="1:17">
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:17">
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="1:17">
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:17">
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="1:17" ht="32">
-      <c r="A219" s="10" t="s">
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="13"/>
+      <c r="Q224" s="13"/>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="1:17" ht="32">
+      <c r="A226" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B226" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C226" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
-      <c r="N219" s="11" t="s">
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
+      <c r="N226" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O219" s="10"/>
-      <c r="P219" s="10"/>
-      <c r="Q219" s="10"/>
-    </row>
-    <row r="220" spans="1:17">
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="O220" s="2"/>
-    </row>
-    <row r="221" spans="1:17" ht="64">
-      <c r="A221" s="10" t="s">
+      <c r="O226" s="10"/>
+      <c r="P226" s="10"/>
+      <c r="Q226" s="10"/>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="O227" s="2"/>
+    </row>
+    <row r="228" spans="1:17" ht="64">
+      <c r="A228" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B228" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C228" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="11"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="11"/>
-      <c r="K221" s="10"/>
-      <c r="L221" s="10"/>
-      <c r="M221" s="10"/>
-      <c r="N221" s="11"/>
-      <c r="O221" s="11"/>
-      <c r="P221" s="10"/>
-      <c r="Q221" s="10"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6853,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7169,1011 +8002,897 @@
         <v>70</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>251</v>
+        <v>568</v>
       </c>
       <c r="B35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>253</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>251</v>
+        <v>568</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>254</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>420</v>
+        <v>568</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>421</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>420</v>
+        <v>568</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>422</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>423</v>
+        <v>572</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>423</v>
+        <v>572</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>423</v>
+        <v>572</v>
       </c>
       <c r="B43" s="3">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>424</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>233</v>
+        <v>572</v>
       </c>
       <c r="B45" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>233</v>
+        <v>572</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>235</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>233</v>
+        <v>572</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>236</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B49" s="3">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B50" s="3">
+        <v>88</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B56" s="3">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B66" s="3">
+        <v>99</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="3">
         <v>4</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B73" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B74" s="3">
         <v>2</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="3" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B75" s="3">
         <v>3</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B76" s="3">
         <v>4</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B77" s="3">
         <v>5</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B78" s="3">
         <v>6</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="3">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="3">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88" s="3">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3</v>
+        <v>98</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90" s="3">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="3">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="3">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>155</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="3">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="3">
+        <v>3</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="3">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="3">
         <v>3</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3" t="s">
+    <row r="120" spans="1:7">
+      <c r="A120" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B120" s="3">
         <v>4</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1">
-      <c r="A99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="4">
-        <v>1</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="4">
-        <v>2</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1">
-      <c r="A101" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="4">
-        <v>3</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1">
-      <c r="A103" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="G103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="4" customFormat="1">
-      <c r="A104" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="G104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1">
-      <c r="A105" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="G105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="4" customFormat="1">
-      <c r="A106" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="G106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1">
-      <c r="A107" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="G107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="4" customFormat="1">
-      <c r="A108" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="G108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="4" customFormat="1">
-      <c r="A109" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="G109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="4" customFormat="1">
-      <c r="A110" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="G110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1">
-      <c r="A111" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="G111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="4" customFormat="1">
-      <c r="A112" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="G112" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="4" customFormat="1">
-      <c r="A113" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="G113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="4" customFormat="1">
-      <c r="A114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="G114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1">
-      <c r="A115" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="G115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="4" customFormat="1">
-      <c r="A116" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="G116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="4" customFormat="1">
-      <c r="A117" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="G117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="G118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="4" customFormat="1">
-      <c r="A119" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="G119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="G120" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="4" customFormat="1">
-      <c r="A121" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="G121" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="4" customFormat="1">
       <c r="A122" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>182</v>
+        <v>92</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E122" s="3"/>
-      <c r="G122" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="123" spans="1:7" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="B123" s="4">
+        <v>2</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="E123" s="3"/>
-      <c r="G123" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="124" spans="1:7" s="4" customFormat="1">
       <c r="A124" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="B124" s="4">
+        <v>3</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E124" s="3"/>
-      <c r="G124" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:7" s="4" customFormat="1">
-      <c r="A125" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="G125" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E126" s="3"/>
       <c r="G126" s="4">
@@ -8185,10 +8904,10 @@
         <v>162</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E127" s="3"/>
       <c r="G127" s="4">
@@ -8200,10 +8919,10 @@
         <v>162</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E128" s="3"/>
       <c r="G128" s="4">
@@ -8215,10 +8934,10 @@
         <v>162</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E129" s="3"/>
       <c r="G129" s="4">
@@ -8230,10 +8949,10 @@
         <v>162</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E130" s="3"/>
       <c r="G130" s="4">
@@ -8245,10 +8964,10 @@
         <v>162</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E131" s="3"/>
       <c r="G131" s="4">
@@ -8260,10 +8979,10 @@
         <v>162</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E132" s="3"/>
       <c r="G132" s="4">
@@ -8275,14 +8994,14 @@
         <v>162</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E133" s="3"/>
       <c r="G133" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="4" customFormat="1">
@@ -8290,14 +9009,14 @@
         <v>162</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E134" s="3"/>
       <c r="G134" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="4" customFormat="1">
@@ -8305,14 +9024,14 @@
         <v>162</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E135" s="3"/>
       <c r="G135" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="4" customFormat="1">
@@ -8320,14 +9039,14 @@
         <v>162</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E136" s="3"/>
       <c r="G136" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="4" customFormat="1">
@@ -8335,14 +9054,14 @@
         <v>162</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E137" s="3"/>
       <c r="G137" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="4" customFormat="1">
@@ -8350,14 +9069,14 @@
         <v>162</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E138" s="3"/>
       <c r="G138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="4" customFormat="1">
@@ -8365,14 +9084,14 @@
         <v>162</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E139" s="3"/>
       <c r="G139" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="4" customFormat="1">
@@ -8380,14 +9099,14 @@
         <v>162</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E140" s="3"/>
       <c r="G140" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="4" customFormat="1">
@@ -8395,14 +9114,14 @@
         <v>162</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E141" s="3"/>
       <c r="G141" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="4" customFormat="1">
@@ -8410,14 +9129,14 @@
         <v>162</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E142" s="3"/>
       <c r="G142" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="4" customFormat="1">
@@ -8425,14 +9144,14 @@
         <v>162</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E143" s="3"/>
       <c r="G143" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="4" customFormat="1">
@@ -8440,14 +9159,14 @@
         <v>162</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E144" s="3"/>
       <c r="G144" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="4" customFormat="1">
@@ -8455,14 +9174,14 @@
         <v>162</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E145" s="3"/>
       <c r="G145" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="4" customFormat="1">
@@ -8470,14 +9189,14 @@
         <v>162</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E146" s="3"/>
       <c r="G146" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="4" customFormat="1">
@@ -8485,14 +9204,14 @@
         <v>162</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E147" s="3"/>
       <c r="G147" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="4" customFormat="1">
@@ -8500,14 +9219,14 @@
         <v>162</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E148" s="3"/>
       <c r="G148" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="4" customFormat="1">
@@ -8515,14 +9234,14 @@
         <v>162</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E149" s="3"/>
       <c r="G149" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="4" customFormat="1">
@@ -8530,14 +9249,14 @@
         <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E150" s="3"/>
       <c r="G150" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="4" customFormat="1">
@@ -8545,14 +9264,14 @@
         <v>162</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E151" s="3"/>
       <c r="G151" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="4" customFormat="1">
@@ -8560,14 +9279,14 @@
         <v>162</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E152" s="3"/>
       <c r="G152" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="4" customFormat="1">
@@ -8575,14 +9294,14 @@
         <v>162</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E153" s="3"/>
       <c r="G153" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="4" customFormat="1">
@@ -8590,14 +9309,14 @@
         <v>162</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E154" s="3"/>
       <c r="G154" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="4" customFormat="1">
@@ -8605,14 +9324,14 @@
         <v>162</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E155" s="3"/>
       <c r="G155" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="4" customFormat="1">
@@ -8620,10 +9339,10 @@
         <v>162</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E156" s="3"/>
       <c r="G156" s="4">
@@ -8635,10 +9354,10 @@
         <v>162</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E157" s="3"/>
       <c r="G157" s="4">
@@ -8650,10 +9369,10 @@
         <v>162</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E158" s="3"/>
       <c r="G158" s="4">
@@ -8665,10 +9384,10 @@
         <v>162</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E159" s="3"/>
       <c r="G159" s="4">
@@ -8680,10 +9399,10 @@
         <v>162</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E160" s="3"/>
       <c r="G160" s="4">
@@ -8695,10 +9414,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E161" s="3"/>
       <c r="G161" s="4">
@@ -8710,10 +9429,10 @@
         <v>162</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E162" s="3"/>
       <c r="G162" s="4">
@@ -8725,14 +9444,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E163" s="3"/>
       <c r="G163" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="4" customFormat="1">
@@ -8740,14 +9459,14 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E164" s="3"/>
       <c r="G164" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="4" customFormat="1">
@@ -8755,14 +9474,14 @@
         <v>162</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E165" s="3"/>
       <c r="G165" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="4" customFormat="1">
@@ -8770,14 +9489,14 @@
         <v>162</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E166" s="3"/>
       <c r="G166" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="4" customFormat="1">
@@ -8785,14 +9504,14 @@
         <v>162</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E167" s="3"/>
       <c r="G167" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="4" customFormat="1">
@@ -8800,14 +9519,14 @@
         <v>162</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E168" s="3"/>
       <c r="G168" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="4" customFormat="1">
@@ -8815,14 +9534,14 @@
         <v>162</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E169" s="3"/>
       <c r="G169" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="4" customFormat="1">
@@ -8830,14 +9549,14 @@
         <v>162</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E170" s="3"/>
       <c r="G170" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="4" customFormat="1">
@@ -8845,14 +9564,14 @@
         <v>162</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E171" s="3"/>
       <c r="G171" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="4" customFormat="1">
@@ -8860,14 +9579,14 @@
         <v>162</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E172" s="3"/>
       <c r="G172" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="4" customFormat="1">
@@ -8875,14 +9594,14 @@
         <v>162</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E173" s="3"/>
       <c r="G173" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="4" customFormat="1">
@@ -8890,14 +9609,14 @@
         <v>162</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E174" s="3"/>
       <c r="G174" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="4" customFormat="1">
@@ -8905,14 +9624,14 @@
         <v>162</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E175" s="3"/>
       <c r="G175" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="4" customFormat="1">
@@ -8920,14 +9639,14 @@
         <v>162</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E176" s="3"/>
       <c r="G176" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="4" customFormat="1">
@@ -8935,14 +9654,14 @@
         <v>162</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E177" s="3"/>
       <c r="G177" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="4" customFormat="1">
@@ -8950,14 +9669,14 @@
         <v>162</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E178" s="3"/>
       <c r="G178" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="4" customFormat="1">
@@ -8965,14 +9684,14 @@
         <v>162</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E179" s="3"/>
       <c r="G179" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="4" customFormat="1">
@@ -8980,14 +9699,14 @@
         <v>162</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E180" s="3"/>
       <c r="G180" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="4" customFormat="1">
@@ -8995,14 +9714,14 @@
         <v>162</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E181" s="3"/>
       <c r="G181" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="4" customFormat="1">
@@ -9010,14 +9729,14 @@
         <v>162</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E182" s="3"/>
       <c r="G182" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="4" customFormat="1">
@@ -9025,14 +9744,14 @@
         <v>162</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E183" s="3"/>
       <c r="G183" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="4" customFormat="1">
@@ -9040,14 +9759,14 @@
         <v>162</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E184" s="3"/>
       <c r="G184" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="4" customFormat="1">
@@ -9055,14 +9774,14 @@
         <v>162</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E185" s="3"/>
       <c r="G185" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="4" customFormat="1">
@@ -9070,10 +9789,10 @@
         <v>162</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E186" s="3"/>
       <c r="G186" s="4">
@@ -9085,10 +9804,10 @@
         <v>162</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="E187" s="3"/>
       <c r="G187" s="4">
@@ -9100,10 +9819,10 @@
         <v>162</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E188" s="3"/>
       <c r="G188" s="4">
@@ -9115,10 +9834,10 @@
         <v>162</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E189" s="3"/>
       <c r="G189" s="4">
@@ -9130,10 +9849,10 @@
         <v>162</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E190" s="3"/>
       <c r="G190" s="4">
@@ -9145,10 +9864,10 @@
         <v>162</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E191" s="3"/>
       <c r="G191" s="4">
@@ -9160,13 +9879,358 @@
         <v>162</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E192" s="3"/>
       <c r="G192" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="4" customFormat="1">
+      <c r="A193" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="G193" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="4" customFormat="1">
+      <c r="A194" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="G194" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="4" customFormat="1">
+      <c r="A195" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="G195" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="4" customFormat="1">
+      <c r="A196" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="G196" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="4" customFormat="1">
+      <c r="A197" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="G197" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="4" customFormat="1">
+      <c r="A198" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="G198" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="4" customFormat="1">
+      <c r="A199" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E199" s="3"/>
+      <c r="G199" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="4" customFormat="1">
+      <c r="A200" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="G200" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="4" customFormat="1">
+      <c r="A201" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="G201" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="4" customFormat="1">
+      <c r="A202" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="G202" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="4" customFormat="1">
+      <c r="A203" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E203" s="3"/>
+      <c r="G203" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="4" customFormat="1">
+      <c r="A204" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E204" s="3"/>
+      <c r="G204" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="4" customFormat="1">
+      <c r="A205" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="G205" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="4" customFormat="1">
+      <c r="A206" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="G206" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="4" customFormat="1">
+      <c r="A207" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E207" s="3"/>
+      <c r="G207" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="4" customFormat="1">
+      <c r="A208" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="G208" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="4" customFormat="1">
+      <c r="A209" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E209" s="3"/>
+      <c r="G209" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="4" customFormat="1">
+      <c r="A210" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E210" s="3"/>
+      <c r="G210" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="4" customFormat="1">
+      <c r="A211" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E211" s="3"/>
+      <c r="G211" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="4" customFormat="1">
+      <c r="A212" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="G212" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="4" customFormat="1">
+      <c r="A213" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E213" s="3"/>
+      <c r="G213" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="4" customFormat="1">
+      <c r="A214" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="G214" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="4" customFormat="1">
+      <c r="A215" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="G215" s="4">
         <v>3</v>
       </c>
     </row>
@@ -9181,13 +10245,13 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="1"/>
-    <col min="2" max="2" width="15.5" style="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1"/>
     <col min="4" max="4" width="14.1640625" style="1"/>
     <col min="5" max="5" width="19.33203125" style="1"/>

--- a/liberiaCoverage.xlsx
+++ b/liberiaCoverage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A948CCB-D0FC-F748-B459-8CA734C4E754}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F497050-66D5-6C44-92B7-54193CA1A1FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="460" windowWidth="39240" windowHeight="28200" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="39240" windowHeight="28200" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="593">
   <si>
     <t>type</t>
   </si>
@@ -1601,9 +1601,6 @@
     <t>int(once(random()) * ${ch}) + 1</t>
   </si>
   <si>
-    <t>${ch} = ${child}</t>
-  </si>
-  <si>
     <t>mnp</t>
   </si>
   <si>
@@ -1679,9 +1676,6 @@
     <t>selected(${mnp3}, '1')</t>
   </si>
   <si>
-    <t>${ch} = ${child} and (age &lt;= 23 or age1 &lt;= 23 or age2 &lt;= 23)</t>
-  </si>
-  <si>
     <t>vit</t>
   </si>
   <si>
@@ -1803,6 +1797,15 @@
   </si>
   <si>
     <t>selected(${icf2a}, '88')</t>
+  </si>
+  <si>
+    <t>(${counter} mode ${skip}) = 0 and ${ch} = ${child}</t>
+  </si>
+  <si>
+    <t>(${counter} mode ${skip}) = 0 and ${ch} = ${child} and (age &lt;= 23 or age1 &lt;= 23 or age2 &lt;= 23)</t>
+  </si>
+  <si>
+    <t>(${counter} mode ${skip}) = 0</t>
   </si>
 </sst>
 </file>
@@ -2391,10 +2394,10 @@
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="16"/>
@@ -2485,10 +2488,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -2727,10 +2730,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -2738,7 +2741,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -2945,7 +2948,9 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
@@ -3278,7 +3283,9 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
+      <c r="N33" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
       <c r="Q33" s="23"/>
@@ -3389,7 +3396,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
@@ -7170,15 +7177,15 @@
     <row r="204" spans="1:17">
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:17" ht="32">
+    <row r="205" spans="1:17" ht="48">
       <c r="A205" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C205" s="20" t="s">
         <v>525</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>526</v>
       </c>
       <c r="D205" s="30"/>
       <c r="E205" s="30"/>
@@ -7191,7 +7198,7 @@
       <c r="L205" s="20"/>
       <c r="M205" s="20"/>
       <c r="N205" s="30" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="O205" s="30"/>
       <c r="P205" s="20"/>
@@ -7199,13 +7206,13 @@
     </row>
     <row r="206" spans="1:17" ht="32">
       <c r="A206" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C206" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="B206" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="D206" s="22"/>
       <c r="E206" s="22"/>
@@ -7226,13 +7233,13 @@
     </row>
     <row r="207" spans="1:17" ht="48">
       <c r="A207" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B207" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C207" s="22" t="s">
         <v>530</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="D207" s="22"/>
       <c r="E207" s="22"/>
@@ -7253,13 +7260,13 @@
     </row>
     <row r="208" spans="1:17" ht="48">
       <c r="A208" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B208" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="B208" s="21" t="s">
+      <c r="C208" s="22" t="s">
         <v>533</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>534</v>
       </c>
       <c r="D208" s="22"/>
       <c r="E208" s="22"/>
@@ -7274,7 +7281,7 @@
       <c r="L208" s="21"/>
       <c r="M208" s="21"/>
       <c r="N208" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="21" t="s">
@@ -7287,7 +7294,7 @@
         <v>35</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>516</v>
@@ -7303,7 +7310,7 @@
       <c r="L209" s="21"/>
       <c r="M209" s="21"/>
       <c r="N209" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="21"/>
@@ -7311,13 +7318,13 @@
     </row>
     <row r="210" spans="1:17" ht="48">
       <c r="A210" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B210" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C210" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>540</v>
       </c>
       <c r="D210" s="22"/>
       <c r="E210" s="22"/>
@@ -7330,7 +7337,7 @@
       <c r="L210" s="21"/>
       <c r="M210" s="21"/>
       <c r="N210" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O210" s="22"/>
       <c r="P210" s="21" t="s">
@@ -7340,13 +7347,13 @@
     </row>
     <row r="211" spans="1:17" ht="48">
       <c r="A211" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B211" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="C211" s="22" t="s">
         <v>542</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="D211" s="22"/>
       <c r="E211" s="22"/>
@@ -7361,7 +7368,7 @@
       <c r="L211" s="21"/>
       <c r="M211" s="21"/>
       <c r="N211" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O211" s="22"/>
       <c r="P211" s="21" t="s">
@@ -7374,7 +7381,7 @@
         <v>35</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>516</v>
@@ -7390,7 +7397,7 @@
       <c r="L212" s="21"/>
       <c r="M212" s="21"/>
       <c r="N212" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O212" s="22"/>
       <c r="P212" s="21"/>
@@ -7401,10 +7408,10 @@
         <v>20</v>
       </c>
       <c r="B213" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C213" s="22" t="s">
         <v>547</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>548</v>
       </c>
       <c r="D213" s="22"/>
       <c r="E213" s="22"/>
@@ -7417,7 +7424,7 @@
       <c r="L213" s="21"/>
       <c r="M213" s="21"/>
       <c r="N213" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O213" s="22"/>
       <c r="P213" s="21" t="s">
@@ -7449,15 +7456,15 @@
     <row r="215" spans="1:17">
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" ht="32">
       <c r="A216" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D216" s="30"/>
       <c r="E216" s="30"/>
@@ -7470,7 +7477,7 @@
       <c r="L216" s="20"/>
       <c r="M216" s="20"/>
       <c r="N216" s="30" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="O216" s="30"/>
       <c r="P216" s="20"/>
@@ -7478,13 +7485,13 @@
     </row>
     <row r="217" spans="1:17" ht="48">
       <c r="A217" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D217" s="22"/>
       <c r="E217" s="22"/>
@@ -7505,13 +7512,13 @@
     </row>
     <row r="218" spans="1:17" ht="32">
       <c r="A218" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C218" s="22" t="s">
         <v>555</v>
-      </c>
-      <c r="B218" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>557</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="22"/>
@@ -7526,7 +7533,7 @@
       <c r="L218" s="21"/>
       <c r="M218" s="21"/>
       <c r="N218" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O218" s="22"/>
       <c r="P218" s="21" t="s">
@@ -7539,7 +7546,7 @@
         <v>35</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>516</v>
@@ -7555,7 +7562,7 @@
       <c r="L219" s="21"/>
       <c r="M219" s="21"/>
       <c r="N219" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="21"/>
@@ -7563,13 +7570,13 @@
     </row>
     <row r="220" spans="1:17" ht="48">
       <c r="A220" s="21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D220" s="22"/>
       <c r="E220" s="22"/>
@@ -7582,7 +7589,7 @@
       <c r="L220" s="21"/>
       <c r="M220" s="21"/>
       <c r="N220" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O220" s="22"/>
       <c r="P220" s="21" t="s">
@@ -7595,10 +7602,10 @@
         <v>20</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D221" s="22"/>
       <c r="E221" s="22"/>
@@ -7611,7 +7618,7 @@
       <c r="L221" s="21"/>
       <c r="M221" s="21"/>
       <c r="N221" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O221" s="22"/>
       <c r="P221" s="21" t="s">
@@ -7955,35 +7962,35 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B19" s="3">
         <v>99</v>
@@ -8148,7 +8155,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -8159,18 +8166,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -8181,29 +8188,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B43" s="3">
         <v>88</v>
@@ -8214,7 +8221,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -8225,95 +8232,95 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B51" s="3">
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B52" s="3">
         <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B53" s="3">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B54" s="3">
         <v>88</v>
@@ -8324,7 +8331,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -8335,40 +8342,40 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B59" s="3">
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B60" s="3">
         <v>88</v>
